--- a/internalFormularyCosts.xlsx
+++ b/internalFormularyCosts.xlsx
@@ -76,7 +76,364 @@
     <t>Item No</t>
   </si>
   <si>
-    <t>SYSTANE PF LUBRIC EYE DROP 30X0.7ML UD</t>
+    <t>ACETAMINOPHEN 325MG TAB 100FTS</t>
+  </si>
+  <si>
+    <t>ALBUTEROL NEBS 2.5MG/3ML UD</t>
+  </si>
+  <si>
+    <t>ALENDRONATE TAB 70MG</t>
+  </si>
+  <si>
+    <t>AMLODIPINE 10MG TAB OPD ONLY</t>
+  </si>
+  <si>
+    <t>AMLODIPINE 2.5MG TAB</t>
+  </si>
+  <si>
+    <t>AMLODIPINE 5MG TAB</t>
+  </si>
+  <si>
+    <t>AMOXICILLIN CAP 500MG 500/BTL</t>
+  </si>
+  <si>
+    <t>ASPIRIN 81MG CHEWABLE TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>ATORVASTATIN 20MG TAB</t>
+  </si>
+  <si>
+    <t>ATORVASTATIN 40MG TAB</t>
+  </si>
+  <si>
+    <t>ATORVASTATIN 80MG TAB</t>
+  </si>
+  <si>
+    <t>AZITHROMYCIN 250MG TAB PAK</t>
+  </si>
+  <si>
+    <t>BECLOMETHASONE DIP 80MCG INHALER</t>
+  </si>
+  <si>
+    <t>BETAMETHASONE DIP 0.05% CREAM 15GM</t>
+  </si>
+  <si>
+    <t>BUPROPION 150MG SR TAB</t>
+  </si>
+  <si>
+    <t>CALCIUM CARB 1250MG TAB</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 3.125 MG TAB</t>
+  </si>
+  <si>
+    <t>CETIRIZINE 10MG TAB</t>
+  </si>
+  <si>
+    <t>CHLORTHALIDONE 25MG TAB</t>
+  </si>
+  <si>
+    <t>CITALOPRAM 10MG TAB</t>
+  </si>
+  <si>
+    <t>CITALOPRAM 20MG TAB 500</t>
+  </si>
+  <si>
+    <t>CITALOPRAM 20MG TAB UD</t>
+  </si>
+  <si>
+    <t>CITALOPRAM 40MG TAB</t>
+  </si>
+  <si>
+    <t>CLARITHROMYCIN 500MG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>CLOPIDOGREL 75MG TAB BTL 90S</t>
+  </si>
+  <si>
+    <t>CLOTRIMAZOLE TOP CREAM  15GM</t>
+  </si>
+  <si>
+    <t>CYCLOBENZAPRINE 5MG TAB</t>
+  </si>
+  <si>
+    <t>DICLOFENAC SOD 75MG DR TAB - OPD ONLY</t>
+  </si>
+  <si>
+    <t>DILTIAZEM CD 120MG CAP</t>
+  </si>
+  <si>
+    <t>DIPHENHYDRAMINE 25MG CAP BOTTLE</t>
+  </si>
+  <si>
+    <t>DOCUSATE SODIUM 100MG CAP BOTTLE</t>
+  </si>
+  <si>
+    <t>DULOXETINE HCL 30MG CAP</t>
+  </si>
+  <si>
+    <t>ESCITALOPRAM 10MG TABLET</t>
+  </si>
+  <si>
+    <t>FAMOTIDINE 40MG TAB</t>
+  </si>
+  <si>
+    <t>FERROUS SULFATE 325MG TAB BTL/100</t>
+  </si>
+  <si>
+    <t>FLUOCINONIDE CREAM 0.05% 30GM</t>
+  </si>
+  <si>
+    <t>FLUOXETINE 10MG CAP</t>
+  </si>
+  <si>
+    <t>FLUOXETINE HCL 10MG CAP UD</t>
+  </si>
+  <si>
+    <t>FLUTICASONE 50MCG 120SPY 16G NASAL</t>
+  </si>
+  <si>
+    <t>FOLIC ACID 1MG TAB</t>
+  </si>
+  <si>
+    <t>FUROSEMIDE 20MG TAB</t>
+  </si>
+  <si>
+    <t>FUROSEMIDE 40MG TAB</t>
+  </si>
+  <si>
+    <t>GABAPENTIN 100MG CAP</t>
+  </si>
+  <si>
+    <t>GABAPENTIN 400MG CAP</t>
+  </si>
+  <si>
+    <t>GABAPENTIN 600MG TAB</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE 1MG TAB 100FTS</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE 2MG TABLET</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE 4MG TAB</t>
+  </si>
+  <si>
+    <t>GUAIFENESIN ORAL LIQUID 100 MG/5ML 16OZ OPD ONLY</t>
+  </si>
+  <si>
+    <t>HYDRALAZINE  25MG TAB</t>
+  </si>
+  <si>
+    <t>HYDRALAZINE 50MG TAB</t>
+  </si>
+  <si>
+    <t>HYDROCHLOROTHIAZIDE 25MG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>HYDROCORTISONE 25MG SUPPOSITORY</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 200MG TAB 100S</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 400MG TAB</t>
+  </si>
+  <si>
+    <t>IBUPROFEN 600MG TAB OPD ONLY</t>
+  </si>
+  <si>
+    <t>INSULIN ASPART 100 UNITS/ML 10ML</t>
+  </si>
+  <si>
+    <t>INSULIN GLARGINE 10 ML</t>
+  </si>
+  <si>
+    <t>INSULIN HUMAN NPH 100 UNITS/ML 10ML</t>
+  </si>
+  <si>
+    <t>INSULIN LISPRO 100 UNITS/ML 10ML OPD ONLY</t>
+  </si>
+  <si>
+    <t>IPRATROPIUM BROMIDE NEBS 0.02%  2.5ML</t>
+  </si>
+  <si>
+    <t>ISONIAZID 300MG TAB</t>
+  </si>
+  <si>
+    <t>ISOSORBIDE MONO 30MG  ER TAB</t>
+  </si>
+  <si>
+    <t>LACTULOSE LIQUID 473ML BOTTLE</t>
+  </si>
+  <si>
+    <t>LATANOPROST 0.005% OPHTH SOL 2.5ML</t>
+  </si>
+  <si>
+    <t>LEVOFLOXACIN 500MG TAB</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE 100MCG TAB</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE 137MCG TAB</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE 25MCG TAB</t>
+  </si>
+  <si>
+    <t>LEVOTHYROXINE 75MCG TAB</t>
+  </si>
+  <si>
+    <t>LISINOPRIL 10MG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>LISINOPRIL 20MG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>LISINOPRIL 40MG TAB OPD ONLY</t>
+  </si>
+  <si>
+    <t>LISINOPRIL 5MG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>LORATADINE 10MG TAB</t>
+  </si>
+  <si>
+    <t>LOSARTAN 100MG TAB</t>
+  </si>
+  <si>
+    <t>LOSARTAN 25MG TAB</t>
+  </si>
+  <si>
+    <t>LOSARTAN 50MG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>MECLIZINE 12.5MG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>MEDROXYPROGESTERONE ACETATE 2.5MG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>MELOXICAM 7.5MG TAB OPD ONLY</t>
+  </si>
+  <si>
+    <t>METFORMIN 1000MG TAB 500</t>
+  </si>
+  <si>
+    <t>METFORMIN 500MG TAB</t>
+  </si>
+  <si>
+    <t>METFORMIN 850MG TAB</t>
+  </si>
+  <si>
+    <t>METFORMIN HCL TAB ER 24HR 500 MG</t>
+  </si>
+  <si>
+    <t>METHOTREXATE 2.5MG TAB</t>
+  </si>
+  <si>
+    <t>METOCLOPRAMIDE 10MG TAB</t>
+  </si>
+  <si>
+    <t>METOLAZONE 5 MG TAB</t>
+  </si>
+  <si>
+    <t>METOPROLOL SUCC XL 25MG</t>
+  </si>
+  <si>
+    <t>METOPROLOL TART 100MG TAB</t>
+  </si>
+  <si>
+    <t>METOPROLOL TART 50MG TAB</t>
+  </si>
+  <si>
+    <t>MIRTAZAPINE 15MG TAB</t>
+  </si>
+  <si>
+    <t>MIRTAZAPINE 15MG TAB UD</t>
+  </si>
+  <si>
+    <t>MISOPROSTOL 200MCG TAB BOTTLE</t>
+  </si>
+  <si>
+    <t>MOXIFLOXACIN HCL 0.5% OPHTH SL 3ML</t>
+  </si>
+  <si>
+    <t>MULTIVITAMIN TAB BTL</t>
+  </si>
+  <si>
+    <t>MYCOPHENOLATE 500MG TAB</t>
+  </si>
+  <si>
+    <t>NIFEDIPINE XL 60MG TAB</t>
+  </si>
+  <si>
+    <t>NIFEDIPINE XL 90MG TAB</t>
+  </si>
+  <si>
+    <t>NITROFUR/NITROF MICR 100MG CAP</t>
+  </si>
+  <si>
+    <t>OCULAR LUBRICANT OINT 3.5GM</t>
+  </si>
+  <si>
+    <t>OMEGA-3 ACID ETHYL ESTERS CAP 120</t>
+  </si>
+  <si>
+    <t>OMEPRAZOLE 40MG CAP NF</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 20MG TAB BULK</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG TAB</t>
+  </si>
+  <si>
+    <t>PAROXETINE 20MG TAB UD</t>
+  </si>
+  <si>
+    <t>PEG 3350 PWD 17G MIRALAX</t>
+  </si>
+  <si>
+    <t>PENICILLIN VK 500MG TAB  - OPD  ONLY</t>
+  </si>
+  <si>
+    <t>POLYMX NEO HC OTIC SUSP 10ML</t>
+  </si>
+  <si>
+    <t>PRAVASTATIN 20MG TAB</t>
+  </si>
+  <si>
+    <t>PREDNISONE  5MG TAB</t>
+  </si>
+  <si>
+    <t>PREDNISONE 1MG TAB</t>
+  </si>
+  <si>
+    <t>PROAIR HFA 90MCG INH 8.5GM</t>
+  </si>
+  <si>
+    <t>PYRIDOXINE  50MG TAB</t>
+  </si>
+  <si>
+    <t>RANITIDINE 150MG TAB</t>
+  </si>
+  <si>
+    <t>RECLIPSEN TAB 6X28</t>
+  </si>
+  <si>
+    <t>SENNA CONC STD</t>
+  </si>
+  <si>
+    <t>SERTRALINE 25MG TAB</t>
+  </si>
+  <si>
+    <t>SERTRALINE 50MG TAB</t>
+  </si>
+  <si>
+    <t>SERTRALINE 50MG TAB UD</t>
   </si>
   <si>
     <t>SIMVASTATIN TAB 20MG</t>
@@ -85,406 +442,49 @@
     <t>SIMVASTATIN TAB 40MG 90S</t>
   </si>
   <si>
-    <t>PENICILLIN VK 500MG TAB  - OPD  ONLY</t>
+    <t>SODIUM BICARBONATE 650MG TAB</t>
   </si>
   <si>
-    <t>BUPROPION 150MG SR TAB</t>
+    <t>SULFASALAZINE 500MG TAB BOTTLE</t>
   </si>
   <si>
-    <t>DICLOFENAC SOD 75MG DR TAB - OPD ONLY</t>
+    <t>SYSTANE PF LUBRIC EYE DROP 30X0.7ML UD</t>
   </si>
   <si>
-    <t>LEVOTHYROXINE 137MCG TAB</t>
+    <t>TEARS ARTIFICIAL DRP 15ML</t>
   </si>
   <si>
-    <t>MYCOPHENOLATE 500MG TAB</t>
+    <t>TERAZOSIN 1MG CAP</t>
   </si>
   <si>
-    <t>OMEPRAZOLE 40MG CAP NF</t>
+    <t>TOPIRAMATE 25MG TAB</t>
+  </si>
+  <si>
+    <t>TOPIRAMATE 25MG TAB UD</t>
+  </si>
+  <si>
+    <t>TRAZODONE 50MG TAB BOTTLE</t>
   </si>
   <si>
     <t>TRAZODONE 50MG TAB UD</t>
   </si>
   <si>
-    <t>CITALOPRAM 20MG TAB UD</t>
-  </si>
-  <si>
-    <t>TOPIRAMATE 25MG TAB UD</t>
-  </si>
-  <si>
-    <t>SERTRALINE 50MG TAB UD</t>
-  </si>
-  <si>
-    <t>MIRTAZAPINE 15MG TAB UD</t>
-  </si>
-  <si>
-    <t>FLUOXETINE HCL 10MG CAP UD</t>
-  </si>
-  <si>
-    <t>PAROXETINE 20MG TAB UD</t>
-  </si>
-  <si>
-    <t>MECLIZINE 12.5MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>ESCITALOPRAM 10MG TABLET</t>
-  </si>
-  <si>
-    <t>POLYMX NEO HC OTIC SUSP 10ML</t>
-  </si>
-  <si>
-    <t>LEVOFLOXACIN 500MG TAB</t>
-  </si>
-  <si>
-    <t>FAMOTIDINE 40MG TAB</t>
-  </si>
-  <si>
-    <t>DILTIAZEM CD 120MG CAP</t>
-  </si>
-  <si>
-    <t>CLOTRIMAZOLE TOP CREAM  15GM</t>
-  </si>
-  <si>
-    <t>BETAMETHASONE DIP 0.05% CREAM 15GM</t>
-  </si>
-  <si>
-    <t>ATORVASTATIN 40MG TAB</t>
-  </si>
-  <si>
-    <t>RECLIPSEN TAB 6X28</t>
-  </si>
-  <si>
-    <t>TERAZOSIN 1MG CAP</t>
-  </si>
-  <si>
-    <t>METOLAZONE 5 MG TAB</t>
-  </si>
-  <si>
-    <t>METFORMIN 850MG TAB</t>
-  </si>
-  <si>
-    <t>DOCUSATE SODIUM 100MG CAP BOTTLE</t>
-  </si>
-  <si>
-    <t>DIPHENHYDRAMINE 25MG CAP BOTTLE</t>
-  </si>
-  <si>
-    <t>CARVEDILOL 3.125 MG TAB</t>
-  </si>
-  <si>
-    <t>ASPIRIN 81MG CHEWABLE TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>AMOXICILLIN CAP 500MG 500/BTL</t>
-  </si>
-  <si>
-    <t>CLARITHROMYCIN 500MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>CLOPIDOGREL 75MG TAB BTL 90S</t>
+    <t>TRINESSA TAB 6X28</t>
   </si>
   <si>
     <t>VENTOLIN HFA 90MCG INH 18GM - OPD ONLY</t>
   </si>
   <si>
-    <t>ALBUTEROL NEBS 2.5MG/3ML UD</t>
-  </si>
-  <si>
-    <t>METOCLOPRAMIDE 10MG TAB</t>
-  </si>
-  <si>
-    <t>METFORMIN 500MG TAB</t>
-  </si>
-  <si>
-    <t>LEVOTHYROXINE 100MCG TAB</t>
-  </si>
-  <si>
-    <t>FLUOXETINE 10MG CAP</t>
-  </si>
-  <si>
-    <t>MISOPROSTOL 200MCG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>CHLORTHALIDONE 25MG TAB</t>
-  </si>
-  <si>
-    <t>AMLODIPINE 2.5MG TAB</t>
-  </si>
-  <si>
-    <t>CALCIUM CARB 1250MG TAB</t>
-  </si>
-  <si>
-    <t>AMLODIPINE 10MG TAB OPD ONLY</t>
-  </si>
-  <si>
-    <t>TRINESSA TAB 6X28</t>
-  </si>
-  <si>
-    <t>FUROSEMIDE 40MG TAB</t>
-  </si>
-  <si>
-    <t>SODIUM BICARBONATE 650MG TAB</t>
-  </si>
-  <si>
-    <t>CITALOPRAM 20MG TAB 500</t>
-  </si>
-  <si>
-    <t>SERTRALINE 50MG TAB</t>
-  </si>
-  <si>
-    <t>LATANOPROST 0.005% OPHTH SOL 2.5ML</t>
-  </si>
-  <si>
-    <t>IBUPROFEN 400MG TAB</t>
-  </si>
-  <si>
-    <t>SENNA CONC STD</t>
-  </si>
-  <si>
-    <t>PRAVASTATIN 20MG TAB</t>
-  </si>
-  <si>
-    <t>MULTIVITAMIN TAB BTL</t>
-  </si>
-  <si>
-    <t>METFORMIN HCL TAB ER 24HR 500 MG</t>
-  </si>
-  <si>
-    <t>METFORMIN 1000MG TAB 500</t>
-  </si>
-  <si>
-    <t>LEVOTHYROXINE 25MCG TAB</t>
-  </si>
-  <si>
-    <t>INSULIN LISPRO 100 UNITS/ML 10ML OPD ONLY</t>
-  </si>
-  <si>
-    <t>HYDROCHLOROTHIAZIDE 25MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>GABAPENTIN 600MG TAB</t>
-  </si>
-  <si>
-    <t>AMLODIPINE 5MG TAB</t>
-  </si>
-  <si>
-    <t>AZITHROMYCIN 250MG TAB PAK</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG TAB</t>
-  </si>
-  <si>
-    <t>LORATADINE 10MG TAB</t>
-  </si>
-  <si>
-    <t>RANITIDINE 150MG TAB</t>
-  </si>
-  <si>
-    <t>IPRATROPIUM BROMIDE NEBS 0.02%  2.5ML</t>
-  </si>
-  <si>
-    <t>CETIRIZINE 10MG TAB</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE 2MG TABLET</t>
-  </si>
-  <si>
-    <t>INSULIN GLARGINE 10 ML</t>
-  </si>
-  <si>
-    <t>MELOXICAM 7.5MG TAB OPD ONLY</t>
-  </si>
-  <si>
-    <t>LOSARTAN 25MG TAB</t>
-  </si>
-  <si>
-    <t>FERROUS SULFATE 325MG TAB BTL/100</t>
-  </si>
-  <si>
-    <t>OMEGA-3 ACID ETHYL ESTERS CAP 120</t>
-  </si>
-  <si>
-    <t>CYCLOBENZAPRINE 5MG TAB</t>
-  </si>
-  <si>
-    <t>INSULIN ASPART 100 UNITS/ML 10ML</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE 1MG TAB 100FTS</t>
-  </si>
-  <si>
-    <t>FLUOCINONIDE CREAM 0.05% 30GM</t>
-  </si>
-  <si>
-    <t>TRAZODONE 50MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>PREDNISONE  5MG TAB</t>
-  </si>
-  <si>
-    <t>LEVOTHYROXINE 75MCG TAB</t>
-  </si>
-  <si>
-    <t>INSULIN HUMAN NPH 100 UNITS/ML 10ML</t>
-  </si>
-  <si>
-    <t>TOPIRAMATE 25MG TAB</t>
-  </si>
-  <si>
-    <t>METOPROLOL TART 50MG TAB</t>
-  </si>
-  <si>
-    <t>ACETAMINOPHEN 325MG TAB 100FTS</t>
-  </si>
-  <si>
-    <t>HYDRALAZINE  25MG TAB</t>
-  </si>
-  <si>
     <t>VITAMIN D3 1000 IU TAB OPD ONLY</t>
-  </si>
-  <si>
-    <t>NIFEDIPINE XL 90MG TAB</t>
-  </si>
-  <si>
-    <t>LISINOPRIL 40MG TAB OPD ONLY</t>
   </si>
   <si>
     <t>VITAMIN D3 400IU TAB 100S</t>
   </si>
   <si>
-    <t>SERTRALINE 25MG TAB</t>
-  </si>
-  <si>
-    <t>MIRTAZAPINE 15MG TAB</t>
-  </si>
-  <si>
-    <t>LOSARTAN 50MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>PYRIDOXINE  50MG TAB</t>
-  </si>
-  <si>
-    <t>METHOTREXATE 2.5MG TAB</t>
-  </si>
-  <si>
-    <t>PREDNISONE 1MG TAB</t>
-  </si>
-  <si>
-    <t>ISONIAZID 300MG TAB</t>
-  </si>
-  <si>
-    <t>HYDROCORTISONE 25MG SUPPOSITORY</t>
-  </si>
-  <si>
-    <t>LISINOPRIL 20MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>LISINOPRIL 5MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>TEARS ARTIFICIAL DRP 15ML</t>
-  </si>
-  <si>
-    <t>MEDROXYPROGESTERONE ACETATE 2.5MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>FUROSEMIDE 20MG TAB</t>
-  </si>
-  <si>
-    <t>LACTULOSE LIQUID 473ML BOTTLE</t>
-  </si>
-  <si>
-    <t>GABAPENTIN 100MG CAP</t>
-  </si>
-  <si>
-    <t>ALENDRONATE TAB 70MG</t>
-  </si>
-  <si>
-    <t>CITALOPRAM 40MG TAB</t>
-  </si>
-  <si>
-    <t>CITALOPRAM 10MG TAB</t>
-  </si>
-  <si>
-    <t>ISOSORBIDE MONO 30MG  ER TAB</t>
-  </si>
-  <si>
-    <t>FOLIC ACID 1MG TAB</t>
-  </si>
-  <si>
-    <t>ATORVASTATIN 20MG TAB</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE 4MG TAB</t>
-  </si>
-  <si>
-    <t>IBUPROFEN 200MG TAB 100S</t>
-  </si>
-  <si>
-    <t>NIFEDIPINE XL 60MG TAB</t>
-  </si>
-  <si>
-    <t>ATORVASTATIN 80MG TAB</t>
-  </si>
-  <si>
-    <t>NITROFUR/NITROF MICR 100MG CAP</t>
-  </si>
-  <si>
-    <t>SULFASALAZINE 500MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>OCULAR LUBRICANT OINT 3.5GM</t>
-  </si>
-  <si>
-    <t>MOXIFLOXACIN HCL 0.5% OPHTH SL 3ML</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 20MG TAB BULK</t>
-  </si>
-  <si>
-    <t>GABAPENTIN 400MG CAP</t>
-  </si>
-  <si>
-    <t>PEG 3350 PWD 17G MIRALAX</t>
+    <t>WARFARIN 5 MG TAB</t>
   </si>
   <si>
     <t>WARFARIN 7.5MG TAB</t>
-  </si>
-  <si>
-    <t>IBUPROFEN 600MG TAB OPD ONLY</t>
-  </si>
-  <si>
-    <t>METOPROLOL SUCC XL 25MG</t>
-  </si>
-  <si>
-    <t>DULOXETINE HCL 30MG CAP</t>
-  </si>
-  <si>
-    <t>HYDRALAZINE 50MG TAB</t>
-  </si>
-  <si>
-    <t>LISINOPRIL 10MG TAB BOTTLE</t>
-  </si>
-  <si>
-    <t>METOPROLOL TART 100MG TAB</t>
-  </si>
-  <si>
-    <t>WARFARIN 5 MG TAB</t>
-  </si>
-  <si>
-    <t>BECLOMETHASONE DIP 80MCG INHALER</t>
-  </si>
-  <si>
-    <t>LOSARTAN 100MG TAB</t>
-  </si>
-  <si>
-    <t>FLUTICASONE 50MCG 120SPY 16G NASAL</t>
-  </si>
-  <si>
-    <t>PROAIR HFA 90MCG INH 8.5GM</t>
-  </si>
-  <si>
-    <t>GUAIFENESIN ORAL LIQUID 100 MG/5ML 16OZ OPD ONLY</t>
   </si>
 </sst>
 </file>
@@ -1103,22 +1103,22 @@
     </row>
     <row r="4" spans="1:55">
       <c r="A4" s="1">
-        <v>75205</v>
+        <v>74614</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>240</v>
+        <v>4750</v>
       </c>
       <c r="F4">
-        <v>70.39</v>
+        <v>30.87500000000001</v>
       </c>
       <c r="G4">
-        <v>0.29</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC4">
-        <v>240</v>
+        <v>4750</v>
       </c>
       <c r="AD4">
-        <v>70.39</v>
+        <v>30.87500000000001</v>
       </c>
       <c r="AE4">
-        <v>0.29</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1267,22 +1267,22 @@
     </row>
     <row r="5" spans="1:55">
       <c r="A5" s="1">
-        <v>71987</v>
+        <v>70055</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>1080</v>
+        <v>150</v>
       </c>
       <c r="F5">
-        <v>20.98</v>
+        <v>15.045</v>
       </c>
       <c r="G5">
-        <v>0.02</v>
+        <v>0.1003</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <v>1080</v>
+        <v>150</v>
       </c>
       <c r="AD5">
-        <v>20.98</v>
+        <v>15.045</v>
       </c>
       <c r="AE5">
-        <v>0.02</v>
+        <v>0.1003</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1431,22 +1431,22 @@
     </row>
     <row r="6" spans="1:55">
       <c r="A6" s="1">
-        <v>71989</v>
+        <v>72611</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>17.16</v>
+        <v>16.3</v>
       </c>
       <c r="G6">
-        <v>0.03</v>
+        <v>0.8150000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC6">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="AD6">
-        <v>17.16</v>
+        <v>16.3</v>
       </c>
       <c r="AE6">
-        <v>0.03</v>
+        <v>0.8150000000000001</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1595,22 +1595,22 @@
     </row>
     <row r="7" spans="1:55">
       <c r="A7" s="1">
-        <v>75003</v>
+        <v>72555</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>112</v>
+        <v>450</v>
       </c>
       <c r="F7">
-        <v>29.89</v>
+        <v>9.09</v>
       </c>
       <c r="G7">
-        <v>0.27</v>
+        <v>0.0202</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC7">
-        <v>112</v>
+        <v>450</v>
       </c>
       <c r="AD7">
-        <v>29.89</v>
+        <v>9.09</v>
       </c>
       <c r="AE7">
-        <v>0.27</v>
+        <v>0.0202</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1759,22 +1759,22 @@
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="1">
-        <v>72966</v>
+        <v>70104</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>584</v>
+        <v>300</v>
       </c>
       <c r="F8">
-        <v>128.95</v>
+        <v>4.59</v>
       </c>
       <c r="G8">
-        <v>0.22</v>
+        <v>0.0153</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC8">
-        <v>584</v>
+        <v>300</v>
       </c>
       <c r="AD8">
-        <v>128.95</v>
+        <v>4.59</v>
       </c>
       <c r="AE8">
-        <v>0.22</v>
+        <v>0.0153</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="9" spans="1:55">
       <c r="A9" s="1">
-        <v>75194</v>
+        <v>70106</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="F9">
-        <v>0.58</v>
+        <v>2.295</v>
       </c>
       <c r="G9">
-        <v>0.14</v>
+        <v>0.0153</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC9">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="AD9">
-        <v>0.58</v>
+        <v>2.295</v>
       </c>
       <c r="AE9">
-        <v>0.14</v>
+        <v>0.0153</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2087,22 +2087,22 @@
     </row>
     <row r="10" spans="1:55">
       <c r="A10" s="1">
-        <v>72994</v>
+        <v>72669</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="F10">
-        <v>40.28</v>
+        <v>19.602</v>
       </c>
       <c r="G10">
-        <v>0.17</v>
+        <v>0.05940000000000001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC10">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="AD10">
-        <v>40.28</v>
+        <v>19.602</v>
       </c>
       <c r="AE10">
-        <v>0.17</v>
+        <v>0.05940000000000001</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2251,22 +2251,22 @@
     </row>
     <row r="11" spans="1:55">
       <c r="A11" s="1">
-        <v>74988</v>
+        <v>70177</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>48</v>
+        <v>2880</v>
       </c>
       <c r="F11">
-        <v>8.91</v>
+        <v>46.36799999999995</v>
       </c>
       <c r="G11">
-        <v>0.19</v>
+        <v>0.0161</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AC11">
-        <v>48</v>
+        <v>2880</v>
       </c>
       <c r="AD11">
-        <v>8.91</v>
+        <v>46.36799999999995</v>
       </c>
       <c r="AE11">
-        <v>0.19</v>
+        <v>0.0161</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2415,22 +2415,22 @@
     </row>
     <row r="12" spans="1:55">
       <c r="A12" s="1">
-        <v>72451</v>
+        <v>70185</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F12">
-        <v>64.55</v>
+        <v>12.855</v>
       </c>
       <c r="G12">
-        <v>0.54</v>
+        <v>0.0857</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2493,16 +2493,16 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC12">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD12">
-        <v>64.55</v>
+        <v>12.855</v>
       </c>
       <c r="AE12">
-        <v>0.54</v>
+        <v>0.0857</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2579,22 +2579,22 @@
     </row>
     <row r="13" spans="1:55">
       <c r="A13" s="1">
-        <v>72174</v>
+        <v>70187</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>4800</v>
+        <v>600</v>
       </c>
       <c r="F13">
-        <v>551.04</v>
+        <v>59.02499999999998</v>
       </c>
       <c r="G13">
-        <v>0.11</v>
+        <v>0.098375</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2657,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC13">
-        <v>4800</v>
+        <v>600</v>
       </c>
       <c r="AD13">
-        <v>551.04</v>
+        <v>59.02499999999998</v>
       </c>
       <c r="AE13">
-        <v>0.11</v>
+        <v>0.098375</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2743,22 +2743,22 @@
     </row>
     <row r="14" spans="1:55">
       <c r="A14" s="1">
-        <v>72520</v>
+        <v>73028</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="F14">
-        <v>609.6</v>
+        <v>107.805</v>
       </c>
       <c r="G14">
-        <v>0.08</v>
+        <v>0.1198</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2821,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC14">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="AD14">
-        <v>609.6</v>
+        <v>107.805</v>
       </c>
       <c r="AE14">
-        <v>0.08</v>
+        <v>0.1198</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2907,22 +2907,22 @@
     </row>
     <row r="15" spans="1:55">
       <c r="A15" s="1">
-        <v>72849</v>
+        <v>74519</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>87.17</v>
+        <v>14.766</v>
       </c>
       <c r="G15">
-        <v>0.09</v>
+        <v>0.4922000000000001</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2985,16 +2985,16 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC15">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="AD15">
-        <v>87.17</v>
+        <v>14.766</v>
       </c>
       <c r="AE15">
-        <v>0.09</v>
+        <v>0.4922000000000001</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3071,22 +3071,22 @@
     </row>
     <row r="16" spans="1:55">
       <c r="A16" s="1">
-        <v>71975</v>
+        <v>74833</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>688.13</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>189.47</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3149,16 +3149,16 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC16">
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>688.13</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.1</v>
+        <v>189.47</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3235,22 +3235,22 @@
     </row>
     <row r="17" spans="1:55">
       <c r="A17" s="1">
-        <v>72514</v>
+        <v>70244</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>82.08</v>
+        <v>229.7</v>
       </c>
       <c r="G17">
-        <v>0.11</v>
+        <v>22.97</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC17">
-        <v>720</v>
+        <v>10</v>
       </c>
       <c r="AD17">
-        <v>82.08</v>
+        <v>229.7</v>
       </c>
       <c r="AE17">
-        <v>0.11</v>
+        <v>22.97</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3399,22 +3399,22 @@
     </row>
     <row r="18" spans="1:55">
       <c r="A18" s="1">
-        <v>70903</v>
+        <v>72966</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>4320</v>
+        <v>730</v>
       </c>
       <c r="F18">
-        <v>296.35</v>
+        <v>161.184</v>
       </c>
       <c r="G18">
-        <v>0.07000000000000001</v>
+        <v>0.2208000000000001</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC18">
-        <v>4320</v>
+        <v>730</v>
       </c>
       <c r="AD18">
-        <v>296.35</v>
+        <v>161.184</v>
       </c>
       <c r="AE18">
-        <v>0.07000000000000001</v>
+        <v>0.2208000000000001</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -3563,22 +3563,22 @@
     </row>
     <row r="19" spans="1:55">
       <c r="A19" s="1">
-        <v>71702</v>
+        <v>72600</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>240</v>
+        <v>2550</v>
       </c>
       <c r="F19">
-        <v>54.77</v>
+        <v>41.56500000000001</v>
       </c>
       <c r="G19">
-        <v>0.23</v>
+        <v>0.0163</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC19">
-        <v>240</v>
+        <v>2550</v>
       </c>
       <c r="AD19">
-        <v>54.77</v>
+        <v>41.56500000000001</v>
       </c>
       <c r="AE19">
-        <v>0.23</v>
+        <v>0.0163</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3727,22 +3727,22 @@
     </row>
     <row r="20" spans="1:55">
       <c r="A20" s="1">
-        <v>75105</v>
+        <v>70332</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>-80</v>
+        <v>300</v>
       </c>
       <c r="F20">
-        <v>-10.42</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="G20">
-        <v>0.13</v>
+        <v>0.0261</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3805,16 +3805,16 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC20">
-        <v>-80</v>
+        <v>300</v>
       </c>
       <c r="AD20">
-        <v>-10.42</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="AE20">
-        <v>0.13</v>
+        <v>0.0261</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -3891,22 +3891,22 @@
     </row>
     <row r="21" spans="1:55">
       <c r="A21" s="1">
-        <v>72969</v>
+        <v>72725</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>-300</v>
+        <v>450</v>
       </c>
       <c r="F21">
-        <v>-17.26</v>
+        <v>21.6</v>
       </c>
       <c r="G21">
-        <v>0.07000000000000001</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3969,16 +3969,16 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC21">
-        <v>-300</v>
+        <v>450</v>
       </c>
       <c r="AD21">
-        <v>-17.26</v>
+        <v>21.6</v>
       </c>
       <c r="AE21">
-        <v>0.07000000000000001</v>
+        <v>0.04800000000000001</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -4055,22 +4055,22 @@
     </row>
     <row r="22" spans="1:55">
       <c r="A22" s="1">
-        <v>71797</v>
+        <v>70438</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>-4</v>
+        <v>300</v>
       </c>
       <c r="F22">
-        <v>-171.6</v>
+        <v>235.95</v>
       </c>
       <c r="G22">
-        <v>42.9</v>
+        <v>0.7865000000000001</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4133,16 +4133,16 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC22">
-        <v>-4</v>
+        <v>300</v>
       </c>
       <c r="AD22">
-        <v>-171.6</v>
+        <v>235.95</v>
       </c>
       <c r="AE22">
-        <v>42.9</v>
+        <v>0.7865000000000001</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -4219,22 +4219,22 @@
     </row>
     <row r="23" spans="1:55">
       <c r="A23" s="1">
-        <v>71267</v>
+        <v>73605</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>-40</v>
+        <v>450</v>
       </c>
       <c r="F23">
-        <v>-10.39</v>
+        <v>10.44</v>
       </c>
       <c r="G23">
-        <v>0.26</v>
+        <v>0.0232</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4297,16 +4297,16 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC23">
-        <v>-40</v>
+        <v>450</v>
       </c>
       <c r="AD23">
-        <v>-10.39</v>
+        <v>10.44</v>
       </c>
       <c r="AE23">
-        <v>0.26</v>
+        <v>0.0232</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -4383,22 +4383,22 @@
     </row>
     <row r="24" spans="1:55">
       <c r="A24" s="1">
-        <v>70841</v>
+        <v>72519</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>-240</v>
+        <v>300</v>
       </c>
       <c r="F24">
-        <v>-15.65</v>
+        <v>7.98</v>
       </c>
       <c r="G24">
-        <v>0.06</v>
+        <v>0.0266</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC24">
-        <v>-240</v>
+        <v>300</v>
       </c>
       <c r="AD24">
-        <v>-15.65</v>
+        <v>7.98</v>
       </c>
       <c r="AE24">
-        <v>0.06</v>
+        <v>0.0266</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -4547,22 +4547,22 @@
     </row>
     <row r="25" spans="1:55">
       <c r="A25" s="1">
-        <v>70681</v>
+        <v>72520</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>120</v>
+        <v>10000</v>
       </c>
       <c r="F25">
-        <v>26.51</v>
+        <v>762</v>
       </c>
       <c r="G25">
-        <v>0.22</v>
+        <v>0.0762</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4625,16 +4625,16 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC25">
-        <v>120</v>
+        <v>10000</v>
       </c>
       <c r="AD25">
-        <v>26.51</v>
+        <v>762</v>
       </c>
       <c r="AE25">
-        <v>0.22</v>
+        <v>0.0762</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -4711,22 +4711,22 @@
     </row>
     <row r="26" spans="1:55">
       <c r="A26" s="1">
-        <v>70503</v>
+        <v>72522</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.91</v>
+        <v>0.03560000000000001</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4789,16 +4789,16 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.91</v>
+        <v>0.03560000000000001</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -4875,22 +4875,22 @@
     </row>
     <row r="27" spans="1:55">
       <c r="A27" s="1">
-        <v>70244</v>
+        <v>70477</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="F27">
-        <v>183.76</v>
+        <v>98.02799999999999</v>
       </c>
       <c r="G27">
-        <v>22.97</v>
+        <v>0.7001999999999999</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4953,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC27">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="AD27">
-        <v>183.76</v>
+        <v>98.02799999999999</v>
       </c>
       <c r="AE27">
-        <v>22.97</v>
+        <v>0.7001999999999999</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5039,22 +5039,22 @@
     </row>
     <row r="28" spans="1:55">
       <c r="A28" s="1">
-        <v>70187</v>
+        <v>70501</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="F28">
-        <v>47.22</v>
+        <v>46.56</v>
       </c>
       <c r="G28">
-        <v>0.1</v>
+        <v>0.1552</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -5117,16 +5117,16 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC28">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="AD28">
-        <v>47.22</v>
+        <v>46.56</v>
       </c>
       <c r="AE28">
-        <v>0.1</v>
+        <v>0.1552</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5203,22 +5203,22 @@
     </row>
     <row r="29" spans="1:55">
       <c r="A29" s="1">
-        <v>72481</v>
+        <v>70503</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F29">
-        <v>34.1</v>
+        <v>22.75</v>
       </c>
       <c r="G29">
-        <v>8.52</v>
+        <v>0.91</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -5281,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC29">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="AD29">
-        <v>34.1</v>
+        <v>22.75</v>
       </c>
       <c r="AE29">
-        <v>8.52</v>
+        <v>0.91</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -5367,22 +5367,22 @@
     </row>
     <row r="30" spans="1:55">
       <c r="A30" s="1">
-        <v>72068</v>
+        <v>73395</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F30">
-        <v>6.78</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G30">
-        <v>0.06</v>
+        <v>0.0299</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -5445,16 +5445,16 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC30">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AD30">
-        <v>6.78</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AE30">
-        <v>0.06</v>
+        <v>0.0299</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5531,22 +5531,22 @@
     </row>
     <row r="31" spans="1:55">
       <c r="A31" s="1">
-        <v>71468</v>
+        <v>75194</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>476.35</v>
+        <v>0.7190000000000001</v>
       </c>
       <c r="G31">
-        <v>0.99</v>
+        <v>0.1438</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -5609,16 +5609,16 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC31">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="AD31">
-        <v>476.35</v>
+        <v>0.7190000000000001</v>
       </c>
       <c r="AE31">
-        <v>0.99</v>
+        <v>0.1438</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -5695,22 +5695,22 @@
     </row>
     <row r="32" spans="1:55">
       <c r="A32" s="1">
-        <v>71421</v>
+        <v>70681</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="F32">
-        <v>6.7</v>
+        <v>33.13500000000001</v>
       </c>
       <c r="G32">
-        <v>0.03</v>
+        <v>0.2209</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -5773,16 +5773,16 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC32">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AD32">
-        <v>6.7</v>
+        <v>33.13500000000001</v>
       </c>
       <c r="AE32">
-        <v>0.03</v>
+        <v>0.2209</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -5859,22 +5859,22 @@
     </row>
     <row r="33" spans="1:55">
       <c r="A33" s="1">
-        <v>70730</v>
+        <v>70696</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>960</v>
+        <v>150</v>
       </c>
       <c r="F33">
-        <v>18.43</v>
+        <v>2.79</v>
       </c>
       <c r="G33">
-        <v>0.02</v>
+        <v>0.0186</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -5937,16 +5937,16 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC33">
-        <v>960</v>
+        <v>150</v>
       </c>
       <c r="AD33">
-        <v>18.43</v>
+        <v>2.79</v>
       </c>
       <c r="AE33">
-        <v>0.02</v>
+        <v>0.0186</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -6023,22 +6023,22 @@
     </row>
     <row r="34" spans="1:55">
       <c r="A34" s="1">
-        <v>70696</v>
+        <v>70730</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="F34">
-        <v>2.23</v>
+        <v>23.04</v>
       </c>
       <c r="G34">
-        <v>0.02</v>
+        <v>0.0192</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -6101,16 +6101,16 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC34">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="AD34">
-        <v>2.23</v>
+        <v>23.04</v>
       </c>
       <c r="AE34">
-        <v>0.02</v>
+        <v>0.0192</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -6187,22 +6187,22 @@
     </row>
     <row r="35" spans="1:55">
       <c r="A35" s="1">
-        <v>70332</v>
+        <v>73648</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="F35">
-        <v>6.26</v>
+        <v>52.15500000000002</v>
       </c>
       <c r="G35">
-        <v>0.03</v>
+        <v>0.3477000000000001</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -6265,16 +6265,16 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC35">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AD35">
-        <v>6.26</v>
+        <v>52.15500000000002</v>
       </c>
       <c r="AE35">
-        <v>0.03</v>
+        <v>0.3477000000000001</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -6351,22 +6351,22 @@
     </row>
     <row r="36" spans="1:55">
       <c r="A36" s="1">
-        <v>70177</v>
+        <v>72969</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>2304</v>
+        <v>-375</v>
       </c>
       <c r="F36">
-        <v>37.09</v>
+        <v>-21.57</v>
       </c>
       <c r="G36">
-        <v>0.02</v>
+        <v>0.06655</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -6429,16 +6429,16 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC36">
-        <v>2304</v>
+        <v>-375</v>
       </c>
       <c r="AD36">
-        <v>37.09</v>
+        <v>-21.57</v>
       </c>
       <c r="AE36">
-        <v>0.02</v>
+        <v>0.06655</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -6515,22 +6515,22 @@
     </row>
     <row r="37" spans="1:55">
       <c r="A37" s="1">
-        <v>72669</v>
+        <v>70841</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>264</v>
+        <v>-300</v>
       </c>
       <c r="F37">
-        <v>15.68</v>
+        <v>-19.56</v>
       </c>
       <c r="G37">
-        <v>0.06</v>
+        <v>0.06459999999999999</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -6593,16 +6593,16 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC37">
-        <v>264</v>
+        <v>-300</v>
       </c>
       <c r="AD37">
-        <v>15.68</v>
+        <v>-19.56</v>
       </c>
       <c r="AE37">
-        <v>0.06</v>
+        <v>0.06459999999999999</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -6679,22 +6679,22 @@
     </row>
     <row r="38" spans="1:55">
       <c r="A38" s="1">
-        <v>70477</v>
+        <v>70859</v>
       </c>
       <c r="B38" t="s">
         <v>54</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E38">
-        <v>112</v>
+        <v>1350</v>
       </c>
       <c r="F38">
-        <v>78.42</v>
+        <v>11.205</v>
       </c>
       <c r="G38">
-        <v>0.7</v>
+        <v>0.008299999999999998</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -6757,16 +6757,16 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC38">
-        <v>112</v>
+        <v>1350</v>
       </c>
       <c r="AD38">
-        <v>78.42</v>
+        <v>11.205</v>
       </c>
       <c r="AE38">
-        <v>0.7</v>
+        <v>0.008299999999999998</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -6843,22 +6843,22 @@
     </row>
     <row r="39" spans="1:55">
       <c r="A39" s="1">
-        <v>70501</v>
+        <v>70889</v>
       </c>
       <c r="B39" t="s">
         <v>55</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>37.25</v>
+        <v>128.35</v>
       </c>
       <c r="G39">
-        <v>0.16</v>
+        <v>25.67000000000001</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -6921,16 +6921,16 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC39">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="AD39">
-        <v>37.25</v>
+        <v>128.35</v>
       </c>
       <c r="AE39">
-        <v>0.16</v>
+        <v>25.67000000000001</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -7007,22 +7007,22 @@
     </row>
     <row r="40" spans="1:55">
       <c r="A40" s="1">
-        <v>74389</v>
+        <v>70899</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F40">
-        <v>962</v>
+        <v>8.579999999999998</v>
       </c>
       <c r="G40">
-        <v>48.1</v>
+        <v>0.0286</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -7085,16 +7085,16 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC40">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AD40">
-        <v>962</v>
+        <v>8.579999999999998</v>
       </c>
       <c r="AE40">
-        <v>48.1</v>
+        <v>0.0286</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -7171,22 +7171,22 @@
     </row>
     <row r="41" spans="1:55">
       <c r="A41" s="1">
-        <v>70055</v>
+        <v>70903</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="F41">
-        <v>12.04</v>
+        <v>370.4400000000001</v>
       </c>
       <c r="G41">
-        <v>0.1</v>
+        <v>0.06860000000000001</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -7249,16 +7249,16 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC41">
-        <v>120</v>
+        <v>5400</v>
       </c>
       <c r="AD41">
-        <v>12.04</v>
+        <v>370.4400000000001</v>
       </c>
       <c r="AE41">
-        <v>0.1</v>
+        <v>0.06860000000000001</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -7335,22 +7335,22 @@
     </row>
     <row r="42" spans="1:55">
       <c r="A42" s="1">
-        <v>71463</v>
+        <v>72964</v>
       </c>
       <c r="B42" t="s">
         <v>58</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>7.51</v>
+        <v>18.2</v>
       </c>
       <c r="G42">
-        <v>0.03</v>
+        <v>3.64</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -7413,16 +7413,16 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC42">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="AD42">
-        <v>7.51</v>
+        <v>18.2</v>
       </c>
       <c r="AE42">
-        <v>0.03</v>
+        <v>3.64</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -7499,22 +7499,22 @@
     </row>
     <row r="43" spans="1:55">
       <c r="A43" s="1">
-        <v>71419</v>
+        <v>70933</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>8160</v>
+        <v>300</v>
       </c>
       <c r="F43">
-        <v>401.47</v>
+        <v>3.78</v>
       </c>
       <c r="G43">
-        <v>0.05</v>
+        <v>0.0126</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -7577,16 +7577,16 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC43">
-        <v>8160</v>
+        <v>300</v>
       </c>
       <c r="AD43">
-        <v>401.47</v>
+        <v>3.78</v>
       </c>
       <c r="AE43">
-        <v>0.05</v>
+        <v>0.0126</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -7663,22 +7663,22 @@
     </row>
     <row r="44" spans="1:55">
       <c r="A44" s="1">
-        <v>71278</v>
+        <v>70945</v>
       </c>
       <c r="B44" t="s">
         <v>60</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="F44">
-        <v>17.18</v>
+        <v>8.01</v>
       </c>
       <c r="G44">
-        <v>0.14</v>
+        <v>0.0089</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -7741,16 +7741,16 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC44">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AD44">
-        <v>17.18</v>
+        <v>8.01</v>
       </c>
       <c r="AE44">
-        <v>0.14</v>
+        <v>0.0089</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -7827,22 +7827,22 @@
     </row>
     <row r="45" spans="1:55">
       <c r="A45" s="1">
-        <v>70899</v>
+        <v>72343</v>
       </c>
       <c r="B45" t="s">
         <v>61</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E45">
-        <v>240</v>
+        <v>1350</v>
       </c>
       <c r="F45">
-        <v>6.86</v>
+        <v>30.10500000000001</v>
       </c>
       <c r="G45">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -7905,16 +7905,16 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC45">
-        <v>240</v>
+        <v>1350</v>
       </c>
       <c r="AD45">
-        <v>6.86</v>
+        <v>30.10500000000001</v>
       </c>
       <c r="AE45">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -7991,22 +7991,22 @@
     </row>
     <row r="46" spans="1:55">
       <c r="A46" s="1">
-        <v>71499</v>
+        <v>70950</v>
       </c>
       <c r="B46" t="s">
         <v>62</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>450</v>
       </c>
       <c r="F46">
-        <v>5.34</v>
+        <v>11.43</v>
       </c>
       <c r="G46">
-        <v>0.67</v>
+        <v>0.0254</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC46">
-        <v>8</v>
+        <v>450</v>
       </c>
       <c r="AD46">
-        <v>5.34</v>
+        <v>11.43</v>
       </c>
       <c r="AE46">
-        <v>0.67</v>
+        <v>0.0254</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -8155,22 +8155,22 @@
     </row>
     <row r="47" spans="1:55">
       <c r="A47" s="1">
-        <v>70438</v>
+        <v>70955</v>
       </c>
       <c r="B47" t="s">
         <v>63</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="F47">
-        <v>188.76</v>
+        <v>25.65</v>
       </c>
       <c r="G47">
-        <v>0.79</v>
+        <v>0.05700000000000001</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -8233,16 +8233,16 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC47">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="AD47">
-        <v>188.76</v>
+        <v>25.65</v>
       </c>
       <c r="AE47">
-        <v>0.79</v>
+        <v>0.05700000000000001</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -8319,22 +8319,22 @@
     </row>
     <row r="48" spans="1:55">
       <c r="A48" s="1">
-        <v>70104</v>
+        <v>72475</v>
       </c>
       <c r="B48" t="s">
         <v>64</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="F48">
-        <v>3.67</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="G48">
-        <v>0.02</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -8397,16 +8397,16 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC48">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="AD48">
-        <v>3.67</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="AE48">
-        <v>0.02</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -8483,22 +8483,22 @@
     </row>
     <row r="49" spans="1:55">
       <c r="A49" s="1">
-        <v>72600</v>
+        <v>72832</v>
       </c>
       <c r="B49" t="s">
         <v>65</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>2040</v>
+        <v>300</v>
       </c>
       <c r="F49">
-        <v>33.25</v>
+        <v>29.46000000000001</v>
       </c>
       <c r="G49">
-        <v>0.02</v>
+        <v>0.09820000000000002</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -8561,16 +8561,16 @@
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC49">
-        <v>2040</v>
+        <v>300</v>
       </c>
       <c r="AD49">
-        <v>33.25</v>
+        <v>29.46000000000001</v>
       </c>
       <c r="AE49">
-        <v>0.02</v>
+        <v>0.09820000000000002</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -8647,22 +8647,22 @@
     </row>
     <row r="50" spans="1:55">
       <c r="A50" s="1">
-        <v>72555</v>
+        <v>72833</v>
       </c>
       <c r="B50" t="s">
         <v>66</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="F50">
-        <v>7.27</v>
+        <v>113.85</v>
       </c>
       <c r="G50">
-        <v>0.02</v>
+        <v>0.1518</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -8725,16 +8725,16 @@
         <v>0</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC50">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="AD50">
-        <v>7.27</v>
+        <v>113.85</v>
       </c>
       <c r="AE50">
-        <v>0.02</v>
+        <v>0.1518</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -8811,22 +8811,22 @@
     </row>
     <row r="51" spans="1:55">
       <c r="A51" s="1">
-        <v>72480</v>
+        <v>72834</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="F51">
-        <v>76.12</v>
+        <v>297.96</v>
       </c>
       <c r="G51">
-        <v>6.34</v>
+        <v>0.2483</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -8889,16 +8889,16 @@
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC51">
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="AD51">
-        <v>76.12</v>
+        <v>297.96</v>
       </c>
       <c r="AE51">
-        <v>6.34</v>
+        <v>0.2483</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -8975,22 +8975,22 @@
     </row>
     <row r="52" spans="1:55">
       <c r="A52" s="1">
-        <v>72343</v>
+        <v>74965</v>
       </c>
       <c r="B52" t="s">
         <v>68</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>1080</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>24.08</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="G52">
-        <v>0.02</v>
+        <v>1.64</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -9053,16 +9053,16 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC52">
-        <v>1080</v>
+        <v>5</v>
       </c>
       <c r="AD52">
-        <v>24.08</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="AE52">
-        <v>0.02</v>
+        <v>1.64</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -9139,22 +9139,22 @@
     </row>
     <row r="53" spans="1:55">
       <c r="A53" s="1">
-        <v>71998</v>
+        <v>71049</v>
       </c>
       <c r="B53" t="s">
         <v>69</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>1440</v>
+        <v>300</v>
       </c>
       <c r="F53">
-        <v>18</v>
+        <v>10.92</v>
       </c>
       <c r="G53">
-        <v>0.01</v>
+        <v>0.03639999999999999</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -9217,16 +9217,16 @@
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC53">
-        <v>1440</v>
+        <v>300</v>
       </c>
       <c r="AD53">
-        <v>18</v>
+        <v>10.92</v>
       </c>
       <c r="AE53">
-        <v>0.01</v>
+        <v>0.03639999999999999</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -9303,22 +9303,22 @@
     </row>
     <row r="54" spans="1:55">
       <c r="A54" s="1">
-        <v>72519</v>
+        <v>74763</v>
       </c>
       <c r="B54" t="s">
         <v>70</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>6.38</v>
+        <v>13.41</v>
       </c>
       <c r="G54">
-        <v>0.03</v>
+        <v>0.0447</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -9381,16 +9381,16 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC54">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AD54">
-        <v>6.38</v>
+        <v>13.41</v>
       </c>
       <c r="AE54">
-        <v>0.03</v>
+        <v>0.0447</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -9467,22 +9467,22 @@
     </row>
     <row r="55" spans="1:55">
       <c r="A55" s="1">
-        <v>71974</v>
+        <v>71053</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F55">
-        <v>17.4</v>
+        <v>9.450000000000003</v>
       </c>
       <c r="G55">
-        <v>0.04</v>
+        <v>0.0105</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -9545,16 +9545,16 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC55">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="AD55">
-        <v>17.4</v>
+        <v>9.450000000000003</v>
       </c>
       <c r="AE55">
-        <v>0.04</v>
+        <v>0.0105</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -9631,22 +9631,22 @@
     </row>
     <row r="56" spans="1:55">
       <c r="A56" s="1">
-        <v>71247</v>
+        <v>71068</v>
       </c>
       <c r="B56" t="s">
         <v>72</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="F56">
-        <v>19.68</v>
+        <v>997.5</v>
       </c>
       <c r="G56">
-        <v>4.92</v>
+        <v>8.3125</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -9709,16 +9709,16 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC56">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="AD56">
-        <v>19.68</v>
+        <v>997.5</v>
       </c>
       <c r="AE56">
-        <v>4.92</v>
+        <v>8.3125</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -9795,22 +9795,22 @@
     </row>
     <row r="57" spans="1:55">
       <c r="A57" s="1">
-        <v>71101</v>
+        <v>71099</v>
       </c>
       <c r="B57" t="s">
         <v>73</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>444</v>
+        <v>150</v>
       </c>
       <c r="F57">
-        <v>30.1</v>
+        <v>2.37</v>
       </c>
       <c r="G57">
-        <v>0.07000000000000001</v>
+        <v>0.0158</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -9873,16 +9873,16 @@
         <v>0</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC57">
-        <v>444</v>
+        <v>150</v>
       </c>
       <c r="AD57">
-        <v>30.1</v>
+        <v>2.37</v>
       </c>
       <c r="AE57">
-        <v>0.07000000000000001</v>
+        <v>0.0158</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -9959,22 +9959,22 @@
     </row>
     <row r="58" spans="1:55">
       <c r="A58" s="1">
-        <v>71970</v>
+        <v>71101</v>
       </c>
       <c r="B58" t="s">
         <v>74</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>720</v>
+        <v>555</v>
       </c>
       <c r="F58">
-        <v>6.91</v>
+        <v>37.62899999999999</v>
       </c>
       <c r="G58">
-        <v>0.01</v>
+        <v>0.0678</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -10037,16 +10037,16 @@
         <v>0</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC58">
-        <v>720</v>
+        <v>555</v>
       </c>
       <c r="AD58">
-        <v>6.91</v>
+        <v>37.62899999999999</v>
       </c>
       <c r="AE58">
-        <v>0.01</v>
+        <v>0.0678</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -10123,22 +10123,22 @@
     </row>
     <row r="59" spans="1:55">
       <c r="A59" s="1">
-        <v>71819</v>
+        <v>75056</v>
       </c>
       <c r="B59" t="s">
         <v>75</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F59">
-        <v>16.97</v>
+        <v>2.88</v>
       </c>
       <c r="G59">
-        <v>0.14</v>
+        <v>0.0384</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -10201,16 +10201,16 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC59">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AD59">
-        <v>16.97</v>
+        <v>2.88</v>
       </c>
       <c r="AE59">
-        <v>0.14</v>
+        <v>0.0384</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -10287,22 +10287,22 @@
     </row>
     <row r="60" spans="1:55">
       <c r="A60" s="1">
-        <v>71535</v>
+        <v>72818</v>
       </c>
       <c r="B60" t="s">
         <v>76</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>3.2</v>
+        <v>1283.15</v>
       </c>
       <c r="G60">
-        <v>0.01</v>
+        <v>256.63</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -10365,16 +10365,16 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC60">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="AD60">
-        <v>3.2</v>
+        <v>1283.15</v>
       </c>
       <c r="AE60">
-        <v>0.01</v>
+        <v>256.63</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -10451,22 +10451,22 @@
     </row>
     <row r="61" spans="1:55">
       <c r="A61" s="1">
-        <v>74970</v>
+        <v>72790</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E61">
-        <v>960</v>
+        <v>50</v>
       </c>
       <c r="F61">
-        <v>69.7</v>
+        <v>11571</v>
       </c>
       <c r="G61">
-        <v>0.07000000000000001</v>
+        <v>231.42</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -10529,16 +10529,16 @@
         <v>0</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC61">
-        <v>960</v>
+        <v>50</v>
       </c>
       <c r="AD61">
-        <v>69.7</v>
+        <v>11571</v>
       </c>
       <c r="AE61">
-        <v>0.07000000000000001</v>
+        <v>231.42</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -10615,22 +10615,22 @@
     </row>
     <row r="62" spans="1:55">
       <c r="A62" s="1">
-        <v>74855</v>
+        <v>71137</v>
       </c>
       <c r="B62" t="s">
         <v>78</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E62">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="F62">
-        <v>44.35</v>
+        <v>7693.799999999991</v>
       </c>
       <c r="G62">
-        <v>0.09</v>
+        <v>128.23</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -10693,16 +10693,16 @@
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC62">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="AD62">
-        <v>44.35</v>
+        <v>7693.799999999991</v>
       </c>
       <c r="AE62">
-        <v>0.09</v>
+        <v>128.23</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -10779,22 +10779,22 @@
     </row>
     <row r="63" spans="1:55">
       <c r="A63" s="1">
-        <v>71286</v>
+        <v>71139</v>
       </c>
       <c r="B63" t="s">
         <v>79</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>13.34</v>
+        <v>1185.75</v>
       </c>
       <c r="G63">
-        <v>0.11</v>
+        <v>237.15</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -10857,16 +10857,16 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC63">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="AD63">
-        <v>13.34</v>
+        <v>1185.75</v>
       </c>
       <c r="AE63">
-        <v>0.11</v>
+        <v>237.15</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -10943,22 +10943,22 @@
     </row>
     <row r="64" spans="1:55">
       <c r="A64" s="1">
-        <v>71139</v>
+        <v>71175</v>
       </c>
       <c r="B64" t="s">
         <v>80</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="F64">
-        <v>948.6</v>
+        <v>15.045</v>
       </c>
       <c r="G64">
-        <v>237.15</v>
+        <v>0.1003</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -11021,16 +11021,16 @@
         <v>0</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC64">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="AD64">
-        <v>948.6</v>
+        <v>15.045</v>
       </c>
       <c r="AE64">
-        <v>237.15</v>
+        <v>0.1003</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -11107,22 +11107,22 @@
     </row>
     <row r="65" spans="1:55">
       <c r="A65" s="1">
-        <v>71053</v>
+        <v>71185</v>
       </c>
       <c r="B65" t="s">
         <v>81</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="F65">
-        <v>7.56</v>
+        <v>19.785</v>
       </c>
       <c r="G65">
-        <v>0.01</v>
+        <v>0.1319</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -11185,16 +11185,16 @@
         <v>0</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC65">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="AD65">
-        <v>7.56</v>
+        <v>19.785</v>
       </c>
       <c r="AE65">
-        <v>0.01</v>
+        <v>0.1319</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -11271,22 +11271,22 @@
     </row>
     <row r="66" spans="1:55">
       <c r="A66" s="1">
-        <v>72475</v>
+        <v>73598</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="F66">
-        <v>70.63</v>
+        <v>21.51</v>
       </c>
       <c r="G66">
-        <v>0.1</v>
+        <v>0.1434</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -11349,16 +11349,16 @@
         <v>0</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC66">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="AD66">
-        <v>70.63</v>
+        <v>21.51</v>
       </c>
       <c r="AE66">
-        <v>0.1</v>
+        <v>0.1434</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -11435,22 +11435,22 @@
     </row>
     <row r="67" spans="1:55">
       <c r="A67" s="1">
-        <v>70106</v>
+        <v>71232</v>
       </c>
       <c r="B67" t="s">
         <v>83</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F67">
-        <v>1.84</v>
+        <v>0.336</v>
       </c>
       <c r="G67">
-        <v>0.02</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -11513,16 +11513,16 @@
         <v>0</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC67">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="AD67">
-        <v>1.84</v>
+        <v>0.336</v>
       </c>
       <c r="AE67">
-        <v>0.02</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -11599,22 +11599,22 @@
     </row>
     <row r="68" spans="1:55">
       <c r="A68" s="1">
-        <v>74519</v>
+        <v>71247</v>
       </c>
       <c r="B68" t="s">
         <v>84</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>11.81</v>
+        <v>24.6</v>
       </c>
       <c r="G68">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -11677,16 +11677,16 @@
         <v>0</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC68">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AD68">
-        <v>11.81</v>
+        <v>24.6</v>
       </c>
       <c r="AE68">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -11763,22 +11763,22 @@
     </row>
     <row r="69" spans="1:55">
       <c r="A69" s="1">
-        <v>72776</v>
+        <v>71267</v>
       </c>
       <c r="B69" t="s">
         <v>85</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>840</v>
+        <v>-50</v>
       </c>
       <c r="F69">
-        <v>82.81999999999999</v>
+        <v>-12.99</v>
       </c>
       <c r="G69">
-        <v>0.1</v>
+        <v>0.2598</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -11841,16 +11841,16 @@
         <v>0</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC69">
-        <v>840</v>
+        <v>-50</v>
       </c>
       <c r="AD69">
-        <v>82.81999999999999</v>
+        <v>-12.99</v>
       </c>
       <c r="AE69">
-        <v>0.1</v>
+        <v>0.2598</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -11927,22 +11927,22 @@
     </row>
     <row r="70" spans="1:55">
       <c r="A70" s="1">
-        <v>71338</v>
+        <v>71278</v>
       </c>
       <c r="B70" t="s">
         <v>86</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="F70">
-        <v>9.94</v>
+        <v>21.48</v>
       </c>
       <c r="G70">
-        <v>0.03</v>
+        <v>0.1432</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -12005,16 +12005,16 @@
         <v>0</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC70">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="AD70">
-        <v>9.94</v>
+        <v>21.48</v>
       </c>
       <c r="AE70">
-        <v>0.03</v>
+        <v>0.1432</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -12091,22 +12091,22 @@
     </row>
     <row r="71" spans="1:55">
       <c r="A71" s="1">
-        <v>71923</v>
+        <v>72994</v>
       </c>
       <c r="B71" t="s">
         <v>87</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F71">
-        <v>14.18</v>
+        <v>50.355</v>
       </c>
       <c r="G71">
-        <v>0.06</v>
+        <v>0.16785</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -12169,16 +12169,16 @@
         <v>0</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC71">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AD71">
-        <v>14.18</v>
+        <v>50.355</v>
       </c>
       <c r="AE71">
-        <v>0.06</v>
+        <v>0.16785</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -12255,22 +12255,22 @@
     </row>
     <row r="72" spans="1:55">
       <c r="A72" s="1">
-        <v>71175</v>
+        <v>71286</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F72">
-        <v>12.04</v>
+        <v>16.68</v>
       </c>
       <c r="G72">
-        <v>0.1</v>
+        <v>0.1112</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -12333,16 +12333,16 @@
         <v>0</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC72">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD72">
-        <v>12.04</v>
+        <v>16.68</v>
       </c>
       <c r="AE72">
-        <v>0.1</v>
+        <v>0.1112</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -12419,22 +12419,22 @@
     </row>
     <row r="73" spans="1:55">
       <c r="A73" s="1">
-        <v>72725</v>
+        <v>71277</v>
       </c>
       <c r="B73" t="s">
         <v>89</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="F73">
-        <v>17.28</v>
+        <v>21.03</v>
       </c>
       <c r="G73">
-        <v>0.05</v>
+        <v>0.1402</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -12497,16 +12497,16 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC73">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="AD73">
-        <v>17.28</v>
+        <v>21.03</v>
       </c>
       <c r="AE73">
-        <v>0.05</v>
+        <v>0.1402</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -12583,22 +12583,22 @@
     </row>
     <row r="74" spans="1:55">
       <c r="A74" s="1">
-        <v>72833</v>
+        <v>71324</v>
       </c>
       <c r="B74" t="s">
         <v>90</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F74">
-        <v>91.08</v>
+        <v>6.690000000000001</v>
       </c>
       <c r="G74">
-        <v>0.15</v>
+        <v>0.0223</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -12661,16 +12661,16 @@
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC74">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AD74">
-        <v>91.08</v>
+        <v>6.690000000000001</v>
       </c>
       <c r="AE74">
-        <v>0.15</v>
+        <v>0.0223</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -12747,22 +12747,22 @@
     </row>
     <row r="75" spans="1:55">
       <c r="A75" s="1">
-        <v>72790</v>
+        <v>72498</v>
       </c>
       <c r="B75" t="s">
         <v>91</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="F75">
-        <v>9256.799999999999</v>
+        <v>33.75</v>
       </c>
       <c r="G75">
-        <v>231.42</v>
+        <v>0.03749999999999999</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -12825,16 +12825,16 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC75">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AD75">
-        <v>9256.799999999999</v>
+        <v>33.75</v>
       </c>
       <c r="AE75">
-        <v>231.42</v>
+        <v>0.03749999999999999</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -12911,22 +12911,22 @@
     </row>
     <row r="76" spans="1:55">
       <c r="A76" s="1">
-        <v>73918</v>
+        <v>75164</v>
       </c>
       <c r="B76" t="s">
         <v>92</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E76">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="F76">
-        <v>2.22</v>
+        <v>48.30000000000001</v>
       </c>
       <c r="G76">
-        <v>0.02</v>
+        <v>0.0644</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -12989,16 +12989,16 @@
         <v>0</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC76">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="AD76">
-        <v>2.22</v>
+        <v>48.30000000000001</v>
       </c>
       <c r="AE76">
-        <v>0.02</v>
+        <v>0.0644</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -13075,22 +13075,22 @@
     </row>
     <row r="77" spans="1:55">
       <c r="A77" s="1">
-        <v>71345</v>
+        <v>71322</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E77">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="F77">
-        <v>5.33</v>
+        <v>7.890000000000001</v>
       </c>
       <c r="G77">
-        <v>0.04</v>
+        <v>0.01725</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -13153,16 +13153,16 @@
         <v>0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC77">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="AD77">
-        <v>5.33</v>
+        <v>7.890000000000001</v>
       </c>
       <c r="AE77">
-        <v>0.04</v>
+        <v>0.01725</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -13239,22 +13239,22 @@
     </row>
     <row r="78" spans="1:55">
       <c r="A78" s="1">
-        <v>70859</v>
+        <v>71338</v>
       </c>
       <c r="B78" t="s">
         <v>94</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="F78">
-        <v>8.960000000000001</v>
+        <v>12.42</v>
       </c>
       <c r="G78">
-        <v>0.01</v>
+        <v>0.02760000000000001</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -13317,16 +13317,16 @@
         <v>0</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC78">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AD78">
-        <v>8.960000000000001</v>
+        <v>12.42</v>
       </c>
       <c r="AE78">
-        <v>0.01</v>
+        <v>0.02760000000000001</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -13403,22 +13403,22 @@
     </row>
     <row r="79" spans="1:55">
       <c r="A79" s="1">
-        <v>74068</v>
+        <v>72777</v>
       </c>
       <c r="B79" t="s">
         <v>95</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="F79">
-        <v>352.13</v>
+        <v>22.8</v>
       </c>
       <c r="G79">
-        <v>0.73</v>
+        <v>0.076</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -13481,16 +13481,16 @@
         <v>0</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC79">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="AD79">
-        <v>352.13</v>
+        <v>22.8</v>
       </c>
       <c r="AE79">
-        <v>0.73</v>
+        <v>0.076</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -13567,22 +13567,22 @@
     </row>
     <row r="80" spans="1:55">
       <c r="A80" s="1">
-        <v>73395</v>
+        <v>71345</v>
       </c>
       <c r="B80" t="s">
         <v>96</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="F80">
-        <v>7.18</v>
+        <v>6.66</v>
       </c>
       <c r="G80">
-        <v>0.03</v>
+        <v>0.0444</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -13645,16 +13645,16 @@
         <v>0</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC80">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AD80">
-        <v>7.18</v>
+        <v>6.66</v>
       </c>
       <c r="AE80">
-        <v>0.03</v>
+        <v>0.0444</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -13731,22 +13731,22 @@
     </row>
     <row r="81" spans="1:55">
       <c r="A81" s="1">
-        <v>72818</v>
+        <v>71347</v>
       </c>
       <c r="B81" t="s">
         <v>97</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="F81">
-        <v>1026.52</v>
+        <v>14.37</v>
       </c>
       <c r="G81">
-        <v>256.63</v>
+        <v>0.0479</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -13809,16 +13809,16 @@
         <v>0</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC81">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="AD81">
-        <v>1026.52</v>
+        <v>14.37</v>
       </c>
       <c r="AE81">
-        <v>256.63</v>
+        <v>0.0479</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -13895,22 +13895,22 @@
     </row>
     <row r="82" spans="1:55">
       <c r="A82" s="1">
-        <v>72832</v>
+        <v>75105</v>
       </c>
       <c r="B82" t="s">
         <v>98</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>240</v>
+        <v>-100</v>
       </c>
       <c r="F82">
-        <v>23.57</v>
+        <v>-13.03</v>
       </c>
       <c r="G82">
-        <v>0.1</v>
+        <v>0.1303</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -13973,16 +13973,16 @@
         <v>0</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC82">
-        <v>240</v>
+        <v>-100</v>
       </c>
       <c r="AD82">
-        <v>23.57</v>
+        <v>-13.03</v>
       </c>
       <c r="AE82">
-        <v>0.1</v>
+        <v>0.1303</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -14059,22 +14059,22 @@
     </row>
     <row r="83" spans="1:55">
       <c r="A83" s="1">
-        <v>70889</v>
+        <v>71383</v>
       </c>
       <c r="B83" t="s">
         <v>99</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="F83">
-        <v>102.68</v>
+        <v>13.79</v>
       </c>
       <c r="G83">
-        <v>25.67</v>
+        <v>0.0985</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -14137,16 +14137,16 @@
         <v>0</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC83">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="AD83">
-        <v>102.68</v>
+        <v>13.79</v>
       </c>
       <c r="AE83">
-        <v>25.67</v>
+        <v>0.0985</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -14223,22 +14223,22 @@
     </row>
     <row r="84" spans="1:55">
       <c r="A84" s="1">
-        <v>72173</v>
+        <v>73918</v>
       </c>
       <c r="B84" t="s">
         <v>100</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="F84">
-        <v>11.59</v>
+        <v>2.775</v>
       </c>
       <c r="G84">
-        <v>0.05</v>
+        <v>0.0185</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -14301,16 +14301,16 @@
         <v>0</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC84">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AD84">
-        <v>11.59</v>
+        <v>2.775</v>
       </c>
       <c r="AE84">
-        <v>0.05</v>
+        <v>0.0185</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -14387,22 +14387,22 @@
     </row>
     <row r="85" spans="1:55">
       <c r="A85" s="1">
-        <v>71827</v>
+        <v>74855</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="F85">
-        <v>21.65</v>
+        <v>55.44</v>
       </c>
       <c r="G85">
-        <v>0.09</v>
+        <v>0.09240000000000001</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -14465,16 +14465,16 @@
         <v>0</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC85">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="AD85">
-        <v>21.65</v>
+        <v>55.44</v>
       </c>
       <c r="AE85">
-        <v>0.09</v>
+        <v>0.09240000000000001</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -14551,22 +14551,22 @@
     </row>
     <row r="86" spans="1:55">
       <c r="A86" s="1">
-        <v>71277</v>
+        <v>71419</v>
       </c>
       <c r="B86" t="s">
         <v>102</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E86">
-        <v>120</v>
+        <v>10200</v>
       </c>
       <c r="F86">
-        <v>16.82</v>
+        <v>501.8399999999997</v>
       </c>
       <c r="G86">
-        <v>0.14</v>
+        <v>0.0492</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -14629,16 +14629,16 @@
         <v>0</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AC86">
-        <v>120</v>
+        <v>10200</v>
       </c>
       <c r="AD86">
-        <v>16.82</v>
+        <v>501.8399999999997</v>
       </c>
       <c r="AE86">
-        <v>0.14</v>
+        <v>0.0492</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -14715,22 +14715,22 @@
     </row>
     <row r="87" spans="1:55">
       <c r="A87" s="1">
-        <v>71137</v>
+        <v>71421</v>
       </c>
       <c r="B87" t="s">
         <v>103</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="F87">
-        <v>6155.04</v>
+        <v>8.370000000000001</v>
       </c>
       <c r="G87">
-        <v>128.23</v>
+        <v>0.0279</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -14793,16 +14793,16 @@
         <v>0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC87">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="AD87">
-        <v>6155.04</v>
+        <v>8.370000000000001</v>
       </c>
       <c r="AE87">
-        <v>128.23</v>
+        <v>0.0279</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -14879,22 +14879,22 @@
     </row>
     <row r="88" spans="1:55">
       <c r="A88" s="1">
-        <v>72845</v>
+        <v>74970</v>
       </c>
       <c r="B88" t="s">
         <v>104</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="F88">
-        <v>14.26</v>
+        <v>87.11999999999999</v>
       </c>
       <c r="G88">
-        <v>0.03</v>
+        <v>0.0726</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -14957,16 +14957,16 @@
         <v>0</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC88">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="AD88">
-        <v>14.26</v>
+        <v>87.11999999999999</v>
       </c>
       <c r="AE88">
-        <v>0.03</v>
+        <v>0.0726</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -15043,22 +15043,22 @@
     </row>
     <row r="89" spans="1:55">
       <c r="A89" s="1">
-        <v>71470</v>
+        <v>71434</v>
       </c>
       <c r="B89" t="s">
         <v>105</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>1440</v>
+        <v>160</v>
       </c>
       <c r="F89">
-        <v>57.02</v>
+        <v>156.368</v>
       </c>
       <c r="G89">
-        <v>0.04</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -15121,16 +15121,16 @@
         <v>0</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC89">
-        <v>1440</v>
+        <v>160</v>
       </c>
       <c r="AD89">
-        <v>57.02</v>
+        <v>156.368</v>
       </c>
       <c r="AE89">
-        <v>0.04</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -15207,22 +15207,22 @@
     </row>
     <row r="90" spans="1:55">
       <c r="A90" s="1">
-        <v>74614</v>
+        <v>71463</v>
       </c>
       <c r="B90" t="s">
         <v>106</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>3800</v>
+        <v>300</v>
       </c>
       <c r="F90">
-        <v>24.7</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G90">
-        <v>0.01</v>
+        <v>0.0313</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -15285,16 +15285,16 @@
         <v>0</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC90">
-        <v>3800</v>
+        <v>300</v>
       </c>
       <c r="AD90">
-        <v>24.7</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AE90">
-        <v>0.01</v>
+        <v>0.0313</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -15371,22 +15371,22 @@
     </row>
     <row r="91" spans="1:55">
       <c r="A91" s="1">
-        <v>71049</v>
+        <v>71468</v>
       </c>
       <c r="B91" t="s">
         <v>107</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="F91">
-        <v>8.74</v>
+        <v>595.4400000000001</v>
       </c>
       <c r="G91">
-        <v>0.04</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -15449,16 +15449,16 @@
         <v>0</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC91">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="AD91">
-        <v>8.74</v>
+        <v>595.4400000000001</v>
       </c>
       <c r="AE91">
-        <v>0.04</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -15535,22 +15535,22 @@
     </row>
     <row r="92" spans="1:55">
       <c r="A92" s="1">
-        <v>74061</v>
+        <v>72715</v>
       </c>
       <c r="B92" t="s">
         <v>108</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="F92">
-        <v>9.43</v>
+        <v>98.64000000000003</v>
       </c>
       <c r="G92">
-        <v>0.01</v>
+        <v>0.3288000000000001</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -15613,16 +15613,16 @@
         <v>0</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC92">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AD92">
-        <v>9.43</v>
+        <v>98.64000000000003</v>
       </c>
       <c r="AE92">
-        <v>0.01</v>
+        <v>0.3288000000000001</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -15699,22 +15699,22 @@
     </row>
     <row r="93" spans="1:55">
       <c r="A93" s="1">
-        <v>73089</v>
+        <v>71472</v>
       </c>
       <c r="B93" t="s">
         <v>109</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E93">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="F93">
-        <v>108.07</v>
+        <v>40.55999999999999</v>
       </c>
       <c r="G93">
-        <v>0.45</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -15777,16 +15777,16 @@
         <v>0</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC93">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="AD93">
-        <v>108.07</v>
+        <v>40.55999999999999</v>
       </c>
       <c r="AE93">
-        <v>0.45</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -15863,22 +15863,22 @@
     </row>
     <row r="94" spans="1:55">
       <c r="A94" s="1">
-        <v>75164</v>
+        <v>71470</v>
       </c>
       <c r="B94" t="s">
         <v>110</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E94">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="F94">
-        <v>38.64</v>
+        <v>71.28000000000002</v>
       </c>
       <c r="G94">
-        <v>0.06</v>
+        <v>0.0396</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -15941,16 +15941,16 @@
         <v>0</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC94">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="AD94">
-        <v>38.64</v>
+        <v>71.28000000000002</v>
       </c>
       <c r="AE94">
-        <v>0.06</v>
+        <v>0.0396</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -16027,22 +16027,22 @@
     </row>
     <row r="95" spans="1:55">
       <c r="A95" s="1">
-        <v>73635</v>
+        <v>72513</v>
       </c>
       <c r="B95" t="s">
         <v>111</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>2400</v>
+        <v>150</v>
       </c>
       <c r="F95">
-        <v>24.96</v>
+        <v>14.505</v>
       </c>
       <c r="G95">
-        <v>0.01</v>
+        <v>0.09670000000000001</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -16105,16 +16105,16 @@
         <v>0</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC95">
-        <v>2400</v>
+        <v>150</v>
       </c>
       <c r="AD95">
-        <v>24.96</v>
+        <v>14.505</v>
       </c>
       <c r="AE95">
-        <v>0.01</v>
+        <v>0.09670000000000001</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -16191,22 +16191,22 @@
     </row>
     <row r="96" spans="1:55">
       <c r="A96" s="1">
-        <v>73628</v>
+        <v>72514</v>
       </c>
       <c r="B96" t="s">
         <v>112</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="F96">
-        <v>34.42</v>
+        <v>102.6</v>
       </c>
       <c r="G96">
-        <v>0.07000000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -16269,16 +16269,16 @@
         <v>0</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC96">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="AD96">
-        <v>34.42</v>
+        <v>102.6</v>
       </c>
       <c r="AE96">
-        <v>0.07000000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -16355,22 +16355,22 @@
     </row>
     <row r="97" spans="1:55">
       <c r="A97" s="1">
-        <v>72513</v>
+        <v>71499</v>
       </c>
       <c r="B97" t="s">
         <v>113</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F97">
-        <v>11.6</v>
+        <v>6.673999999999999</v>
       </c>
       <c r="G97">
-        <v>0.1</v>
+        <v>0.6674</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -16433,16 +16433,16 @@
         <v>0</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC97">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="AD97">
-        <v>11.6</v>
+        <v>6.673999999999999</v>
       </c>
       <c r="AE97">
-        <v>0.1</v>
+        <v>0.6674</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -16519,22 +16519,22 @@
     </row>
     <row r="98" spans="1:55">
       <c r="A98" s="1">
-        <v>71347</v>
+        <v>73171</v>
       </c>
       <c r="B98" t="s">
         <v>114</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>11.5</v>
+        <v>717.95</v>
       </c>
       <c r="G98">
-        <v>0.05</v>
+        <v>143.59</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -16597,16 +16597,16 @@
         <v>0</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC98">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="AD98">
-        <v>11.5</v>
+        <v>717.95</v>
       </c>
       <c r="AE98">
-        <v>0.05</v>
+        <v>143.59</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -16683,22 +16683,22 @@
     </row>
     <row r="99" spans="1:55">
       <c r="A99" s="1">
-        <v>71910</v>
+        <v>71535</v>
       </c>
       <c r="B99" t="s">
         <v>115</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E99">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="F99">
-        <v>0.73</v>
+        <v>4.004999999999999</v>
       </c>
       <c r="G99">
-        <v>0.01</v>
+        <v>0.0089</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -16761,16 +16761,16 @@
         <v>0</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC99">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="AD99">
-        <v>0.73</v>
+        <v>4.004999999999999</v>
       </c>
       <c r="AE99">
-        <v>0.01</v>
+        <v>0.0089</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -16847,22 +16847,22 @@
     </row>
     <row r="100" spans="1:55">
       <c r="A100" s="1">
-        <v>71434</v>
+        <v>74988</v>
       </c>
       <c r="B100" t="s">
         <v>116</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F100">
-        <v>125.09</v>
+        <v>11.142</v>
       </c>
       <c r="G100">
-        <v>0.98</v>
+        <v>0.1857</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -16925,16 +16925,16 @@
         <v>0</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC100">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="AD100">
-        <v>125.09</v>
+        <v>11.142</v>
       </c>
       <c r="AE100">
-        <v>0.98</v>
+        <v>0.1857</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -17011,22 +17011,22 @@
     </row>
     <row r="101" spans="1:55">
       <c r="A101" s="1">
-        <v>71825</v>
+        <v>71616</v>
       </c>
       <c r="B101" t="s">
         <v>117</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="F101">
-        <v>49.15</v>
+        <v>71.19000000000001</v>
       </c>
       <c r="G101">
-        <v>0.1</v>
+        <v>0.2373</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -17089,16 +17089,16 @@
         <v>0</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC101">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="AD101">
-        <v>49.15</v>
+        <v>71.19000000000001</v>
       </c>
       <c r="AE101">
-        <v>0.1</v>
+        <v>0.2373</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -17175,22 +17175,22 @@
     </row>
     <row r="102" spans="1:55">
       <c r="A102" s="1">
-        <v>71185</v>
+        <v>73089</v>
       </c>
       <c r="B102" t="s">
         <v>118</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F102">
-        <v>15.83</v>
+        <v>135.09</v>
       </c>
       <c r="G102">
-        <v>0.13</v>
+        <v>0.4503000000000001</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -17253,16 +17253,16 @@
         <v>0</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC102">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AD102">
-        <v>15.83</v>
+        <v>135.09</v>
       </c>
       <c r="AE102">
-        <v>0.13</v>
+        <v>0.4503000000000001</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -17339,22 +17339,22 @@
     </row>
     <row r="103" spans="1:55">
       <c r="A103" s="1">
-        <v>71068</v>
+        <v>72940</v>
       </c>
       <c r="B103" t="s">
         <v>119</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E103">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F103">
-        <v>798</v>
+        <v>99.33600000000001</v>
       </c>
       <c r="G103">
-        <v>8.31</v>
+        <v>0.8278000000000001</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -17417,16 +17417,16 @@
         <v>0</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC103">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="AD103">
-        <v>798</v>
+        <v>99.33600000000001</v>
       </c>
       <c r="AE103">
-        <v>8.31</v>
+        <v>0.8278000000000001</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -17503,22 +17503,22 @@
     </row>
     <row r="104" spans="1:55">
       <c r="A104" s="1">
-        <v>72498</v>
+        <v>71652</v>
       </c>
       <c r="B104" t="s">
         <v>120</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>720</v>
+        <v>15</v>
       </c>
       <c r="F104">
-        <v>27</v>
+        <v>28.95</v>
       </c>
       <c r="G104">
-        <v>0.04</v>
+        <v>1.93</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -17581,16 +17581,16 @@
         <v>0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC104">
-        <v>720</v>
+        <v>15</v>
       </c>
       <c r="AD104">
-        <v>27</v>
+        <v>28.95</v>
       </c>
       <c r="AE104">
-        <v>0.04</v>
+        <v>1.93</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -17667,22 +17667,22 @@
     </row>
     <row r="105" spans="1:55">
       <c r="A105" s="1">
-        <v>71322</v>
+        <v>74068</v>
       </c>
       <c r="B105" t="s">
         <v>121</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E105">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="F105">
-        <v>6.31</v>
+        <v>440.1600000000001</v>
       </c>
       <c r="G105">
-        <v>0.02</v>
+        <v>0.7336</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -17745,16 +17745,16 @@
         <v>0</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC105">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="AD105">
-        <v>6.31</v>
+        <v>440.1600000000001</v>
       </c>
       <c r="AE105">
-        <v>0.02</v>
+        <v>0.7336</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -17831,22 +17831,22 @@
     </row>
     <row r="106" spans="1:55">
       <c r="A106" s="1">
-        <v>75070</v>
+        <v>72451</v>
       </c>
       <c r="B106" t="s">
         <v>122</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="F106">
-        <v>34.72</v>
+        <v>80.685</v>
       </c>
       <c r="G106">
-        <v>2.17</v>
+        <v>0.5379</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -17909,16 +17909,16 @@
         <v>0</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC106">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="AD106">
-        <v>34.72</v>
+        <v>80.685</v>
       </c>
       <c r="AE106">
-        <v>2.17</v>
+        <v>0.5379</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -17995,22 +17995,22 @@
     </row>
     <row r="107" spans="1:55">
       <c r="A107" s="1">
-        <v>71383</v>
+        <v>74315</v>
       </c>
       <c r="B107" t="s">
         <v>123</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>112</v>
+        <v>600</v>
       </c>
       <c r="F107">
-        <v>11.03</v>
+        <v>59.15999999999998</v>
       </c>
       <c r="G107">
-        <v>0.1</v>
+        <v>0.09860000000000001</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -18073,16 +18073,16 @@
         <v>0</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC107">
-        <v>112</v>
+        <v>600</v>
       </c>
       <c r="AD107">
-        <v>11.03</v>
+        <v>59.15999999999998</v>
       </c>
       <c r="AE107">
-        <v>0.1</v>
+        <v>0.09860000000000001</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -18159,22 +18159,22 @@
     </row>
     <row r="108" spans="1:55">
       <c r="A108" s="1">
-        <v>70945</v>
+        <v>72776</v>
       </c>
       <c r="B108" t="s">
         <v>124</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E108">
-        <v>720</v>
+        <v>1050</v>
       </c>
       <c r="F108">
-        <v>6.41</v>
+        <v>103.53</v>
       </c>
       <c r="G108">
-        <v>0.01</v>
+        <v>0.09859999999999998</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -18237,16 +18237,16 @@
         <v>0</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC108">
-        <v>720</v>
+        <v>1050</v>
       </c>
       <c r="AD108">
-        <v>6.41</v>
+        <v>103.53</v>
       </c>
       <c r="AE108">
-        <v>0.01</v>
+        <v>0.09859999999999998</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -18323,22 +18323,22 @@
     </row>
     <row r="109" spans="1:55">
       <c r="A109" s="1">
-        <v>71232</v>
+        <v>71702</v>
       </c>
       <c r="B109" t="s">
         <v>125</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="F109">
-        <v>0.27</v>
+        <v>68.46000000000001</v>
       </c>
       <c r="G109">
-        <v>0.01</v>
+        <v>0.2282</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -18401,16 +18401,16 @@
         <v>0</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC109">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="AD109">
-        <v>0.27</v>
+        <v>68.46000000000001</v>
       </c>
       <c r="AE109">
-        <v>0.01</v>
+        <v>0.2282</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -18487,22 +18487,22 @@
     </row>
     <row r="110" spans="1:55">
       <c r="A110" s="1">
-        <v>70950</v>
+        <v>73390</v>
       </c>
       <c r="B110" t="s">
         <v>126</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="F110">
-        <v>9.140000000000001</v>
+        <v>212.592</v>
       </c>
       <c r="G110">
-        <v>0.03</v>
+        <v>0.8858</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -18565,16 +18565,16 @@
         <v>0</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC110">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="AD110">
-        <v>9.140000000000001</v>
+        <v>212.592</v>
       </c>
       <c r="AE110">
-        <v>0.03</v>
+        <v>0.8858</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -18651,22 +18651,22 @@
     </row>
     <row r="111" spans="1:55">
       <c r="A111" s="1">
-        <v>72611</v>
+        <v>75003</v>
       </c>
       <c r="B111" t="s">
         <v>127</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="F111">
-        <v>13.04</v>
+        <v>37.366</v>
       </c>
       <c r="G111">
-        <v>0.82</v>
+        <v>0.2669</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -18729,16 +18729,16 @@
         <v>0</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC111">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="AD111">
-        <v>13.04</v>
+        <v>37.366</v>
       </c>
       <c r="AE111">
-        <v>0.82</v>
+        <v>0.2669</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -18815,22 +18815,22 @@
     </row>
     <row r="112" spans="1:55">
       <c r="A112" s="1">
-        <v>72522</v>
+        <v>71797</v>
       </c>
       <c r="B112" t="s">
         <v>128</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>-214.5</v>
       </c>
       <c r="G112">
-        <v>0.04</v>
+        <v>42.9</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -18893,16 +18893,16 @@
         <v>0</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC112">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AD112">
-        <v>0</v>
+        <v>-214.5</v>
       </c>
       <c r="AE112">
-        <v>0.04</v>
+        <v>42.9</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -18979,22 +18979,22 @@
     </row>
     <row r="113" spans="1:55">
       <c r="A113" s="1">
-        <v>73605</v>
+        <v>71819</v>
       </c>
       <c r="B113" t="s">
         <v>129</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E113">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="F113">
-        <v>8.35</v>
+        <v>21.21</v>
       </c>
       <c r="G113">
-        <v>0.02</v>
+        <v>0.1414</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -19057,16 +19057,16 @@
         <v>0</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC113">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="AD113">
-        <v>8.35</v>
+        <v>21.21</v>
       </c>
       <c r="AE113">
-        <v>0.02</v>
+        <v>0.1414</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -19143,22 +19143,22 @@
     </row>
     <row r="114" spans="1:55">
       <c r="A114" s="1">
-        <v>73598</v>
+        <v>71827</v>
       </c>
       <c r="B114" t="s">
         <v>130</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F114">
-        <v>17.21</v>
+        <v>27.06</v>
       </c>
       <c r="G114">
-        <v>0.14</v>
+        <v>0.09020000000000002</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -19221,16 +19221,16 @@
         <v>0</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC114">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AD114">
-        <v>17.21</v>
+        <v>27.06</v>
       </c>
       <c r="AE114">
-        <v>0.14</v>
+        <v>0.09020000000000002</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -19307,22 +19307,22 @@
     </row>
     <row r="115" spans="1:55">
       <c r="A115" s="1">
-        <v>70933</v>
+        <v>71825</v>
       </c>
       <c r="B115" t="s">
         <v>131</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="F115">
-        <v>3.02</v>
+        <v>61.44</v>
       </c>
       <c r="G115">
-        <v>0.01</v>
+        <v>0.1024</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -19385,16 +19385,16 @@
         <v>0</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC115">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="AD115">
-        <v>3.02</v>
+        <v>61.44</v>
       </c>
       <c r="AE115">
-        <v>0.01</v>
+        <v>0.1024</v>
       </c>
       <c r="AF115">
         <v>0</v>
@@ -19471,22 +19471,22 @@
     </row>
     <row r="116" spans="1:55">
       <c r="A116" s="1">
-        <v>70185</v>
+        <v>75208</v>
       </c>
       <c r="B116" t="s">
         <v>132</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F116">
-        <v>10.28</v>
+        <v>253.8</v>
       </c>
       <c r="G116">
-        <v>0.09</v>
+        <v>50.76</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -19549,16 +19549,16 @@
         <v>0</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC116">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="AD116">
-        <v>10.28</v>
+        <v>253.8</v>
       </c>
       <c r="AE116">
-        <v>0.09</v>
+        <v>50.76</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -19635,22 +19635,22 @@
     </row>
     <row r="117" spans="1:55">
       <c r="A117" s="1">
-        <v>72834</v>
+        <v>71910</v>
       </c>
       <c r="B117" t="s">
         <v>133</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>960</v>
+        <v>75</v>
       </c>
       <c r="F117">
-        <v>238.37</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="G117">
-        <v>0.25</v>
+        <v>0.0122</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -19713,16 +19713,16 @@
         <v>0</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC117">
-        <v>960</v>
+        <v>75</v>
       </c>
       <c r="AD117">
-        <v>238.37</v>
+        <v>0.9150000000000001</v>
       </c>
       <c r="AE117">
-        <v>0.25</v>
+        <v>0.0122</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -19799,22 +19799,22 @@
     </row>
     <row r="118" spans="1:55">
       <c r="A118" s="1">
-        <v>71099</v>
+        <v>71923</v>
       </c>
       <c r="B118" t="s">
         <v>134</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F118">
-        <v>1.9</v>
+        <v>17.73</v>
       </c>
       <c r="G118">
-        <v>0.02</v>
+        <v>0.0591</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -19877,16 +19877,16 @@
         <v>0</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC118">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AD118">
-        <v>1.9</v>
+        <v>17.73</v>
       </c>
       <c r="AE118">
-        <v>0.02</v>
+        <v>0.0591</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -19963,22 +19963,22 @@
     </row>
     <row r="119" spans="1:55">
       <c r="A119" s="1">
-        <v>71616</v>
+        <v>72481</v>
       </c>
       <c r="B119" t="s">
         <v>135</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E119">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="F119">
-        <v>56.95</v>
+        <v>42.625</v>
       </c>
       <c r="G119">
-        <v>0.24</v>
+        <v>8.525</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -20041,16 +20041,16 @@
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC119">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="AD119">
-        <v>56.95</v>
+        <v>42.625</v>
       </c>
       <c r="AE119">
-        <v>0.24</v>
+        <v>8.525</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -20127,22 +20127,22 @@
     </row>
     <row r="120" spans="1:55">
       <c r="A120" s="1">
-        <v>73028</v>
+        <v>71970</v>
       </c>
       <c r="B120" t="s">
         <v>136</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E120">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="F120">
-        <v>86.23999999999999</v>
+        <v>8.639999999999999</v>
       </c>
       <c r="G120">
-        <v>0.12</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -20205,16 +20205,16 @@
         <v>0</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC120">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="AD120">
-        <v>86.23999999999999</v>
+        <v>8.639999999999999</v>
       </c>
       <c r="AE120">
-        <v>0.12</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -20291,22 +20291,22 @@
     </row>
     <row r="121" spans="1:55">
       <c r="A121" s="1">
-        <v>72940</v>
+        <v>73628</v>
       </c>
       <c r="B121" t="s">
         <v>137</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>96</v>
+        <v>600</v>
       </c>
       <c r="F121">
-        <v>79.47</v>
+        <v>43.02</v>
       </c>
       <c r="G121">
-        <v>0.83</v>
+        <v>0.0717</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -20369,16 +20369,16 @@
         <v>0</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC121">
-        <v>96</v>
+        <v>600</v>
       </c>
       <c r="AD121">
-        <v>79.47</v>
+        <v>43.02</v>
       </c>
       <c r="AE121">
-        <v>0.83</v>
+        <v>0.0717</v>
       </c>
       <c r="AF121">
         <v>0</v>
@@ -20455,22 +20455,22 @@
     </row>
     <row r="122" spans="1:55">
       <c r="A122" s="1">
-        <v>72047</v>
+        <v>71974</v>
       </c>
       <c r="B122" t="s">
         <v>138</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E122">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="F122">
-        <v>111.31</v>
+        <v>21.755</v>
       </c>
       <c r="G122">
-        <v>0.15</v>
+        <v>0.0435</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -20533,16 +20533,16 @@
         <v>0</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC122">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="AD122">
-        <v>111.31</v>
+        <v>21.755</v>
       </c>
       <c r="AE122">
-        <v>0.15</v>
+        <v>0.0435</v>
       </c>
       <c r="AF122">
         <v>0</v>
@@ -20619,22 +20619,22 @@
     </row>
     <row r="123" spans="1:55">
       <c r="A123" s="1">
-        <v>71652</v>
+        <v>71975</v>
       </c>
       <c r="B123" t="s">
         <v>139</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>8400</v>
       </c>
       <c r="F123">
-        <v>23.16</v>
+        <v>860.1600000000001</v>
       </c>
       <c r="G123">
-        <v>1.93</v>
+        <v>0.1024</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -20697,16 +20697,16 @@
         <v>0</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC123">
-        <v>12</v>
+        <v>8400</v>
       </c>
       <c r="AD123">
-        <v>23.16</v>
+        <v>860.1600000000001</v>
       </c>
       <c r="AE123">
-        <v>1.93</v>
+        <v>0.1024</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -20783,22 +20783,22 @@
     </row>
     <row r="124" spans="1:55">
       <c r="A124" s="1">
-        <v>73171</v>
+        <v>71987</v>
       </c>
       <c r="B124" t="s">
         <v>140</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>1350</v>
       </c>
       <c r="F124">
-        <v>574.36</v>
+        <v>26.22000000000002</v>
       </c>
       <c r="G124">
-        <v>143.59</v>
+        <v>0.01942222222222222</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -20861,16 +20861,16 @@
         <v>0</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AC124">
-        <v>4</v>
+        <v>1350</v>
       </c>
       <c r="AD124">
-        <v>574.36</v>
+        <v>26.22000000000002</v>
       </c>
       <c r="AE124">
-        <v>143.59</v>
+        <v>0.01942222222222222</v>
       </c>
       <c r="AF124">
         <v>0</v>
@@ -20947,22 +20947,22 @@
     </row>
     <row r="125" spans="1:55">
       <c r="A125" s="1">
-        <v>74315</v>
+        <v>71989</v>
       </c>
       <c r="B125" t="s">
         <v>141</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E125">
-        <v>480</v>
+        <v>750</v>
       </c>
       <c r="F125">
-        <v>47.33</v>
+        <v>21.45000000000001</v>
       </c>
       <c r="G125">
-        <v>0.1</v>
+        <v>0.0286</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -21025,16 +21025,16 @@
         <v>0</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC125">
-        <v>480</v>
+        <v>750</v>
       </c>
       <c r="AD125">
-        <v>47.33</v>
+        <v>21.45000000000001</v>
       </c>
       <c r="AE125">
-        <v>0.1</v>
+        <v>0.0286</v>
       </c>
       <c r="AF125">
         <v>0</v>
@@ -21111,22 +21111,22 @@
     </row>
     <row r="126" spans="1:55">
       <c r="A126" s="1">
-        <v>70955</v>
+        <v>71998</v>
       </c>
       <c r="B126" t="s">
         <v>142</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="F126">
-        <v>20.52</v>
+        <v>22.5</v>
       </c>
       <c r="G126">
-        <v>0.06</v>
+        <v>0.0125</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -21189,16 +21189,16 @@
         <v>0</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC126">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="AD126">
-        <v>20.52</v>
+        <v>22.5</v>
       </c>
       <c r="AE126">
-        <v>0.06</v>
+        <v>0.0125</v>
       </c>
       <c r="AF126">
         <v>0</v>
@@ -21275,22 +21275,22 @@
     </row>
     <row r="127" spans="1:55">
       <c r="A127" s="1">
-        <v>73390</v>
+        <v>72047</v>
       </c>
       <c r="B127" t="s">
         <v>143</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>192</v>
+        <v>900</v>
       </c>
       <c r="F127">
-        <v>170.07</v>
+        <v>139.14</v>
       </c>
       <c r="G127">
-        <v>0.89</v>
+        <v>0.1546</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -21353,16 +21353,16 @@
         <v>0</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC127">
-        <v>192</v>
+        <v>900</v>
       </c>
       <c r="AD127">
-        <v>170.07</v>
+        <v>139.14</v>
       </c>
       <c r="AE127">
-        <v>0.89</v>
+        <v>0.1546</v>
       </c>
       <c r="AF127">
         <v>0</v>
@@ -21439,22 +21439,22 @@
     </row>
     <row r="128" spans="1:55">
       <c r="A128" s="1">
-        <v>74766</v>
+        <v>75205</v>
       </c>
       <c r="B128" t="s">
         <v>144</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F128">
-        <v>660.48</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="G128">
-        <v>2.75</v>
+        <v>0.2933</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -21517,16 +21517,16 @@
         <v>0</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC128">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AD128">
-        <v>660.48</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="AE128">
-        <v>2.75</v>
+        <v>0.2933</v>
       </c>
       <c r="AF128">
         <v>0</v>
@@ -21603,22 +21603,22 @@
     </row>
     <row r="129" spans="1:55">
       <c r="A129" s="1">
-        <v>75056</v>
+        <v>75070</v>
       </c>
       <c r="B129" t="s">
         <v>145</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E129">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F129">
-        <v>2.3</v>
+        <v>43.40000000000002</v>
       </c>
       <c r="G129">
-        <v>0.04</v>
+        <v>2.17</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -21681,16 +21681,16 @@
         <v>0</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC129">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AD129">
-        <v>2.3</v>
+        <v>43.40000000000002</v>
       </c>
       <c r="AE129">
-        <v>0.04</v>
+        <v>2.17</v>
       </c>
       <c r="AF129">
         <v>0</v>
@@ -21767,22 +21767,22 @@
     </row>
     <row r="130" spans="1:55">
       <c r="A130" s="1">
-        <v>72715</v>
+        <v>72068</v>
       </c>
       <c r="B130" t="s">
         <v>146</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="F130">
-        <v>78.91</v>
+        <v>8.475</v>
       </c>
       <c r="G130">
-        <v>0.33</v>
+        <v>0.05650000000000001</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -21845,16 +21845,16 @@
         <v>0</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC130">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AD130">
-        <v>78.91</v>
+        <v>8.475</v>
       </c>
       <c r="AE130">
-        <v>0.33</v>
+        <v>0.05650000000000001</v>
       </c>
       <c r="AF130">
         <v>0</v>
@@ -21931,22 +21931,22 @@
     </row>
     <row r="131" spans="1:55">
       <c r="A131" s="1">
-        <v>73648</v>
+        <v>72845</v>
       </c>
       <c r="B131" t="s">
         <v>147</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E131">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="F131">
-        <v>41.72</v>
+        <v>17.82</v>
       </c>
       <c r="G131">
-        <v>0.35</v>
+        <v>0.0297</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -22009,16 +22009,16 @@
         <v>0</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC131">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="AD131">
-        <v>41.72</v>
+        <v>17.82</v>
       </c>
       <c r="AE131">
-        <v>0.35</v>
+        <v>0.0297</v>
       </c>
       <c r="AF131">
         <v>0</v>
@@ -22095,22 +22095,22 @@
     </row>
     <row r="132" spans="1:55">
       <c r="A132" s="1">
-        <v>74763</v>
+        <v>72849</v>
       </c>
       <c r="B132" t="s">
         <v>148</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="F132">
-        <v>10.73</v>
+        <v>108.96</v>
       </c>
       <c r="G132">
-        <v>0.04</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -22173,16 +22173,16 @@
         <v>0</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC132">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="AD132">
-        <v>10.73</v>
+        <v>108.96</v>
       </c>
       <c r="AE132">
-        <v>0.04</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="AF132">
         <v>0</v>
@@ -22259,22 +22259,22 @@
     </row>
     <row r="133" spans="1:55">
       <c r="A133" s="1">
-        <v>71324</v>
+        <v>72173</v>
       </c>
       <c r="B133" t="s">
         <v>149</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F133">
-        <v>5.35</v>
+        <v>14.49</v>
       </c>
       <c r="G133">
-        <v>0.02</v>
+        <v>0.0483</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -22337,16 +22337,16 @@
         <v>0</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC133">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AD133">
-        <v>5.35</v>
+        <v>14.49</v>
       </c>
       <c r="AE133">
-        <v>0.02</v>
+        <v>0.0483</v>
       </c>
       <c r="AF133">
         <v>0</v>
@@ -22423,22 +22423,22 @@
     </row>
     <row r="134" spans="1:55">
       <c r="A134" s="1">
-        <v>71472</v>
+        <v>72174</v>
       </c>
       <c r="B134" t="s">
         <v>150</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>480</v>
+        <v>6000</v>
       </c>
       <c r="F134">
-        <v>32.45</v>
+        <v>688.8000000000001</v>
       </c>
       <c r="G134">
-        <v>0.07000000000000001</v>
+        <v>0.1148</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -22501,16 +22501,16 @@
         <v>0</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC134">
-        <v>480</v>
+        <v>6000</v>
       </c>
       <c r="AD134">
-        <v>32.45</v>
+        <v>688.8000000000001</v>
       </c>
       <c r="AE134">
-        <v>0.07000000000000001</v>
+        <v>0.1148</v>
       </c>
       <c r="AF134">
         <v>0</v>
@@ -22587,22 +22587,22 @@
     </row>
     <row r="135" spans="1:55">
       <c r="A135" s="1">
-        <v>73340</v>
+        <v>72480</v>
       </c>
       <c r="B135" t="s">
         <v>151</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E135">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F135">
-        <v>247.62</v>
+        <v>95.1495</v>
       </c>
       <c r="G135">
-        <v>2.06</v>
+        <v>6.3433</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -22665,16 +22665,16 @@
         <v>0</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC135">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="AD135">
-        <v>247.62</v>
+        <v>95.1495</v>
       </c>
       <c r="AE135">
-        <v>2.06</v>
+        <v>6.3433</v>
       </c>
       <c r="AF135">
         <v>0</v>
@@ -22751,22 +22751,22 @@
     </row>
     <row r="136" spans="1:55">
       <c r="A136" s="1">
-        <v>74833</v>
+        <v>74389</v>
       </c>
       <c r="B136" t="s">
         <v>152</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1202.5</v>
       </c>
       <c r="G136">
-        <v>189.47</v>
+        <v>48.09999999999999</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC136">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD136">
-        <v>0</v>
+        <v>1202.5</v>
       </c>
       <c r="AE136">
-        <v>189.47</v>
+        <v>48.09999999999999</v>
       </c>
       <c r="AF136">
         <v>0</v>
@@ -22915,22 +22915,22 @@
     </row>
     <row r="137" spans="1:55">
       <c r="A137" s="1">
-        <v>72777</v>
+        <v>74061</v>
       </c>
       <c r="B137" t="s">
         <v>153</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E137">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="F137">
-        <v>18.24</v>
+        <v>11.79</v>
       </c>
       <c r="G137">
-        <v>0.08</v>
+        <v>0.0131</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -22993,16 +22993,16 @@
         <v>0</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC137">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="AD137">
-        <v>18.24</v>
+        <v>11.79</v>
       </c>
       <c r="AE137">
-        <v>0.08</v>
+        <v>0.0131</v>
       </c>
       <c r="AF137">
         <v>0</v>
@@ -23079,22 +23079,22 @@
     </row>
     <row r="138" spans="1:55">
       <c r="A138" s="1">
-        <v>72964</v>
+        <v>73635</v>
       </c>
       <c r="B138" t="s">
         <v>154</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E138">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="F138">
-        <v>14.56</v>
+        <v>31.19999999999999</v>
       </c>
       <c r="G138">
-        <v>3.64</v>
+        <v>0.0104</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -23157,16 +23157,16 @@
         <v>0</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AC138">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="AD138">
-        <v>14.56</v>
+        <v>31.19999999999999</v>
       </c>
       <c r="AE138">
-        <v>3.64</v>
+        <v>0.0104</v>
       </c>
       <c r="AF138">
         <v>0</v>
@@ -23243,22 +23243,22 @@
     </row>
     <row r="139" spans="1:55">
       <c r="A139" s="1">
-        <v>75208</v>
+        <v>73340</v>
       </c>
       <c r="B139" t="s">
         <v>155</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="F139">
-        <v>203.04</v>
+        <v>309.525</v>
       </c>
       <c r="G139">
-        <v>50.76</v>
+        <v>2.0635</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -23321,16 +23321,16 @@
         <v>0</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC139">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="AD139">
-        <v>203.04</v>
+        <v>309.525</v>
       </c>
       <c r="AE139">
-        <v>50.76</v>
+        <v>2.0635</v>
       </c>
       <c r="AF139">
         <v>0</v>
@@ -23407,22 +23407,22 @@
     </row>
     <row r="140" spans="1:55">
       <c r="A140" s="1">
-        <v>74965</v>
+        <v>74766</v>
       </c>
       <c r="B140" t="s">
         <v>156</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E140">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="F140">
-        <v>6.56</v>
+        <v>825.5999999999999</v>
       </c>
       <c r="G140">
-        <v>1.64</v>
+        <v>2.752</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -23485,16 +23485,16 @@
         <v>0</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC140">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="AD140">
-        <v>6.56</v>
+        <v>825.5999999999999</v>
       </c>
       <c r="AE140">
-        <v>1.64</v>
+        <v>2.752</v>
       </c>
       <c r="AF140">
         <v>0</v>
